--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us-analysis\InputData\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{008D9D4E-A250-406B-A4A4-9DDC8AD5605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="8730"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -21,6 +22,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="ec_50">'EV Sigmoid Fitting'!$B$4</definedName>
@@ -57,17 +59,28 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -239,9 +252,6 @@
     <t>Kemmer G. nd Keller S. (2010) Nonlinear least-squares data fitting in Excel spreadsheets. Nat. Protocols 5, 267–281.</t>
   </si>
   <si>
-    <t>Sum-of-series multiplier for years prior to 2019</t>
-  </si>
-  <si>
     <t>EV battery cap, cumulative (MWh)</t>
   </si>
   <si>
@@ -254,34 +264,55 @@
     <t>Figure 3</t>
   </si>
   <si>
-    <t>Grid batteries and EV batteries through 2030</t>
-  </si>
-  <si>
     <t>EV sales</t>
-  </si>
-  <si>
-    <t>Electric Vehicle Outlook 2020</t>
-  </si>
-  <si>
-    <t>Sigmoid fitting in Excel</t>
-  </si>
-  <si>
-    <t>https://www.protocols.io/view/sigmoid-fitting-in-excel-excel-solver-add-in-78ihrue?step=1</t>
-  </si>
-  <si>
-    <t>Procedure recreated in this file, see EV Sigmoid Fitting tab</t>
   </si>
   <si>
     <t>https://about.bnef.com/new-energy-outlook/</t>
   </si>
   <si>
-    <t>https://about.bnef.com/electric-vehicle-outlook/</t>
+    <t>Sum-of-series multiplier for years prior to 2019 (GWh)</t>
+  </si>
+  <si>
+    <t>Electric Vehicle Outlook 2022</t>
+  </si>
+  <si>
+    <t>https://bnef.turtl.co/story/evo-2022/page/4/1?teaser=yes</t>
+  </si>
+  <si>
+    <t>Grid batteries through 2030</t>
+  </si>
+  <si>
+    <t>EV Battery Production Capacity in 2030</t>
+  </si>
+  <si>
+    <t>McKinsey</t>
+  </si>
+  <si>
+    <t>Battery 2030: Resilient, sustainable, and circular</t>
+  </si>
+  <si>
+    <t>https://www.mckinsey.com/industries/automotive-and-assembly/our-insights/battery-2030-resilient-sustainable-and-circular</t>
+  </si>
+  <si>
+    <t>Exhibit 1</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>We use projected battery production in 2030 and scale linearly between now and 2030</t>
+  </si>
+  <si>
+    <t>Beyond 2030 we use estimated BEV sales to scale annual battery capacity growth, using approximate</t>
+  </si>
+  <si>
+    <t>data from the BNEF EVO.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -433,38 +464,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -477,7 +505,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -485,14 +512,20 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="4"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
-    <cellStyle name="Table Header 2" xfId="3"/>
+    <cellStyle name="Normal 10" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Table Header 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,6 +588,431 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:forward val="20"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="#,##0.000000" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[2]EV Batteries'!$B$9:$Y$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[2]EV Batteries'!$B$13:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1210000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10600000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21000000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40000000</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55000000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>72000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AC46-454A-9ED9-C295BAB62CF4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1116561376"/>
+        <c:axId val="1116550336"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1116561376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116550336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1116550336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1116561376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -702,7 +1160,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$G$2:$G$35</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2375000</c:v>
@@ -1127,7 +1585,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1209,7 +1667,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1217,6 +1674,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1251,7 +1709,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1446,7 +1904,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$G$2:$G$35</c:f>
               <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="34"/>
                 <c:pt idx="0">
                   <c:v>2375000</c:v>
@@ -1871,7 +2329,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1953,7 +2411,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1961,6 +2418,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1995,7 +2453,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2080,7 +2538,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculations!$A$12</c:f>
+              <c:f>[2]Calculations!$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2115,7 +2573,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$B$11:$AG$11</c:f>
+              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2220,7 +2678,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$12:$AG$12</c:f>
+              <c:f>[2]Calculations!$B$12:$AG$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2228,37 +2686,37 @@
                   <c:v>230000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>351470.58823529416</c:v>
+                  <c:v>490909.09090909094</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>403529.41176470584</c:v>
+                  <c:v>751818.18181818188</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>498970.5882352941</c:v>
+                  <c:v>1012727.2727272727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>603088.23529411759</c:v>
+                  <c:v>1273636.3636363638</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>715882.35294117662</c:v>
+                  <c:v>1534545.4545454548</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>820000</c:v>
+                  <c:v>1795454.5454545456</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>950147.0588235294</c:v>
+                  <c:v>2056363.6363636365</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1175735.294117647</c:v>
+                  <c:v>2317272.7272727275</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1418676.4705882352</c:v>
+                  <c:v>2578181.8181818184</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1687647.0588235292</c:v>
+                  <c:v>2839090.9090909096</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2000000</c:v>
+                  <c:v>3100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2266,7 +2724,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D93C-44B6-A2D3-E34118BC424F}"/>
+              <c16:uniqueId val="{00000000-0FD3-452F-A783-E1902130501E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2275,7 +2733,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculations!$A$13</c:f>
+              <c:f>[2]Calculations!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2310,7 +2768,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$B$11:$AG$11</c:f>
+              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2415,39 +2873,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$13:$AK$13</c:f>
+              <c:f>[2]Calculations!$B$13:$AK$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="12">
-                  <c:v>2294117.6470588231</c:v>
+                  <c:v>3424790.5975175635</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2617647.0588235296</c:v>
+                  <c:v>3746501.3723235992</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2872549.0196078434</c:v>
+                  <c:v>4059905.3441759855</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3117647.0588235296</c:v>
+                  <c:v>4360313.8003408825</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3343137.254901961</c:v>
+                  <c:v>4643834.5503812227</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3549019.6078431369</c:v>
+                  <c:v>4907531.6444603689</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3715686.2745098039</c:v>
+                  <c:v>5149479.4152991604</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3872549.0196078434</c:v>
+                  <c:v>5368721.7605243968</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4049019.6078431369</c:v>
+                  <c:v>5565159.8514983393</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4245098.0392156867</c:v>
+                  <c:v>5739396.454520884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2455,7 +2913,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D93C-44B6-A2D3-E34118BC424F}"/>
+              <c16:uniqueId val="{00000001-0FD3-452F-A783-E1902130501E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2464,7 +2922,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculations!$A$14</c:f>
+              <c:f>[2]Calculations!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2499,7 +2957,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$B$11:$AG$11</c:f>
+              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -2604,39 +3062,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$B$14:$AK$14</c:f>
+              <c:f>[2]Calculations!$B$14:$AK$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
                 <c:pt idx="22">
-                  <c:v>4249381.218936245</c:v>
+                  <c:v>5892563.6833218094</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4319057.8987108367</c:v>
+                  <c:v>6026155.5256387582</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4374282.7762160646</c:v>
+                  <c:v>6141879.3779363325</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4417768.075591377</c:v>
+                  <c:v>6241534.0085637206</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4451833.4089139272</c:v>
+                  <c:v>6326915.950859325</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4478411.8204253027</c:v>
+                  <c:v>6399752.6614421792</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4499083.5324107874</c:v>
+                  <c:v>6461658.7298551602</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4515121.8487209175</c:v>
+                  <c:v>6514110.623151809</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4527541.6461870577</c:v>
+                  <c:v>6558435.4749555839</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4537145.1567553291</c:v>
+                  <c:v>6595809.921999068</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2644,7 +3102,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D93C-44B6-A2D3-E34118BC424F}"/>
+              <c16:uniqueId val="{00000002-0FD3-452F-A783-E1902130501E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2861,7 +3319,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2916,7 +3374,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Calculations!$A$17</c:f>
+              <c:f>[2]Calculations!$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2951,7 +3409,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Calculations!$C$16:$AH$16</c:f>
+              <c:f>[2]Calculations!$C$16:$AH$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
@@ -3056,105 +3514,105 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Calculations!$C$17:$AH$17</c:f>
+              <c:f>[2]Calculations!$C$17:$AH$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>230000</c:v>
+                  <c:v>2730000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>581470.58823529421</c:v>
+                  <c:v>3220909.0909090908</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>985000</c:v>
+                  <c:v>3972727.2727272725</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1483970.588235294</c:v>
+                  <c:v>4985454.5454545449</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2087058.8235294116</c:v>
+                  <c:v>6259090.9090909082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2802941.176470588</c:v>
+                  <c:v>7793636.3636363633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3622941.176470588</c:v>
+                  <c:v>9589090.9090909082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4573088.2352941176</c:v>
+                  <c:v>11645454.545454545</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5748823.5294117648</c:v>
+                  <c:v>13962727.272727273</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7167500</c:v>
+                  <c:v>16540909.090909092</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8855147.0588235296</c:v>
+                  <c:v>19380000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>10855147.05882353</c:v>
+                  <c:v>22480000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13149264.705882352</c:v>
+                  <c:v>25904790.597517565</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15766911.764705881</c:v>
+                  <c:v>29651291.969841164</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18639460.784313723</c:v>
+                  <c:v>33711197.314017147</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>21757107.843137253</c:v>
+                  <c:v>38071511.11435803</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25100245.098039214</c:v>
+                  <c:v>42715345.664739251</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28649264.705882352</c:v>
+                  <c:v>47622877.309199616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32364950.980392154</c:v>
+                  <c:v>52772356.724498779</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36237500</c:v>
+                  <c:v>58141078.485023178</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40286519.607843138</c:v>
+                  <c:v>63706238.336521521</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>44531617.647058822</c:v>
+                  <c:v>69445634.791042402</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48780998.865995064</c:v>
+                  <c:v>75338198.474364206</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>53100056.764705904</c:v>
+                  <c:v>81364354.000002965</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>57474339.540921971</c:v>
+                  <c:v>87506233.377939299</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61892107.616513349</c:v>
+                  <c:v>93747767.386503026</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>66343941.025427274</c:v>
+                  <c:v>100074683.33736235</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>70822352.845852584</c:v>
+                  <c:v>106474435.99880452</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75321436.378263369</c:v>
+                  <c:v>112936094.72865969</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>79836558.226984292</c:v>
+                  <c:v>119450205.3518115</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>84364099.873171344</c:v>
+                  <c:v>126008640.82676709</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>88901245.029926673</c:v>
+                  <c:v>132604450.74876615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3162,7 +3620,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9D16-4C1B-86B2-1D08B3D04978}"/>
+              <c16:uniqueId val="{00000000-4971-4C12-A319-D4CF4EFDC9A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3506,6 +3964,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -5055,6 +5553,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5587,7 +6601,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5633,7 +6653,7 @@
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBB3AE92-85FF-4410-8B7A-9C3D744457A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5700,20 +6720,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>166687</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>164291</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>270779</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5726,14 +6752,97 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="176212" y="4362449"/>
-          <a:ext cx="10044113" cy="7679517"/>
+          <a:off x="11525250" y="4457700"/>
+          <a:ext cx="5466667" cy="3342857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EF80FC-C1D4-47E3-BF47-E9FFE5EAA44F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="114300"/>
+          <a:ext cx="11201400" cy="890588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>The table below is from BNEF's </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1"/>
+            <a:t>Long-Term</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="1" baseline="0"/>
+            <a:t> Electric Vehicle Outlook 2020.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" i="0" baseline="0"/>
+            <a:t> This full report is behind a paywall, but the Executive Summary is available for download. BNEF only has data on the annual demand for Li-ion batteries for EVs, not the cumulative stock of EV battery storage. But, this data can be used to estimate the stock of EV battery storage in place (i.e., you could model EV retirements and stock changes from this data). It is important to note that BNEF has one of the most aggressive EV forecasts right now, and therefore their estimates of EV battery demand are also likely to be on the higher end of the spectrum. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5745,27 +6854,115 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>489854</xdr:colOff>
+      <xdr:colOff>270779</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>85307</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240A9436-66EF-484A-8C65-7FB2B231EB37}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11525250" y="4457700"/>
-          <a:ext cx="5466667" cy="3342857"/>
+          <a:off x="10782300" y="4676775"/>
+          <a:ext cx="5128529" cy="3514307"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>346982</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>210910</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>51707</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD58FAE-98B0-49FD-B3C6-BB855EF979D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>110229</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB8A70A2-D9F8-4EB2-BC0E-32BAD203EF46}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="457200" y="2895599"/>
+          <a:ext cx="8343900" cy="8368405"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5797,7 +6994,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A32DE8-1D48-4756-9875-0FA797A58EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5835,7 +7032,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A32DE8-1D48-4756-9875-0FA797A58EA2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5862,21 +7059,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>36635</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>167054</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2057591</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>167055</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>556846</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1911</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>87924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1392B7-F080-4DD4-A446-A147155F6B6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5892,21 +7097,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>3313</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2161760</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>16565</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198782</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Chart 9"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{540ECA9E-D22C-4829-BC79-E19CF8D6C7AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5924,7 +7137,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -6262,6 +7475,782 @@
           </cell>
         </row>
       </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="Grid Battery Storage"/>
+      <sheetName val="EV Sigmoid Fitting"/>
+      <sheetName val="EV Batteries"/>
+      <sheetName val="Calculations"/>
+      <sheetName val="BGBSC BNEF 2022 historical data"/>
+      <sheetName val="BGBSC BNEF 2023 projection"/>
+      <sheetName val="BGBSC DOE 2022 historical data"/>
+      <sheetName val="BGBSC BNEF 2022 historic 18.9%"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="4">
+          <cell r="B4">
+            <v>2020</v>
+          </cell>
+          <cell r="C4">
+            <v>2025</v>
+          </cell>
+          <cell r="D4">
+            <v>2030</v>
+          </cell>
+          <cell r="E4">
+            <v>2035</v>
+          </cell>
+          <cell r="F4">
+            <v>2040</v>
+          </cell>
+          <cell r="G4">
+            <v>2045</v>
+          </cell>
+          <cell r="H4">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>23809.523809523806</v>
+          </cell>
+          <cell r="C6">
+            <v>154761.90476190476</v>
+          </cell>
+          <cell r="D6">
+            <v>571428.57142857148</v>
+          </cell>
+          <cell r="E6">
+            <v>1142857.142857143</v>
+          </cell>
+          <cell r="F6">
+            <v>2023809.5238095236</v>
+          </cell>
+          <cell r="G6">
+            <v>3214285.7142857141</v>
+          </cell>
+          <cell r="H6">
+            <v>4345238.0952380942</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>2020</v>
+          </cell>
+          <cell r="D8">
+            <v>2021</v>
+          </cell>
+          <cell r="E8">
+            <v>2022</v>
+          </cell>
+          <cell r="F8">
+            <v>2023</v>
+          </cell>
+          <cell r="G8">
+            <v>2024</v>
+          </cell>
+          <cell r="H8">
+            <v>2025</v>
+          </cell>
+          <cell r="I8">
+            <v>2026</v>
+          </cell>
+          <cell r="J8">
+            <v>2027</v>
+          </cell>
+          <cell r="K8">
+            <v>2028</v>
+          </cell>
+          <cell r="L8">
+            <v>2029</v>
+          </cell>
+          <cell r="M8">
+            <v>2030</v>
+          </cell>
+          <cell r="N8">
+            <v>2031</v>
+          </cell>
+          <cell r="O8">
+            <v>2032</v>
+          </cell>
+          <cell r="P8">
+            <v>2033</v>
+          </cell>
+          <cell r="Q8">
+            <v>2034</v>
+          </cell>
+          <cell r="R8">
+            <v>2035</v>
+          </cell>
+          <cell r="S8">
+            <v>2036</v>
+          </cell>
+          <cell r="T8">
+            <v>2037</v>
+          </cell>
+          <cell r="U8">
+            <v>2038</v>
+          </cell>
+          <cell r="V8">
+            <v>2039</v>
+          </cell>
+          <cell r="W8">
+            <v>2040</v>
+          </cell>
+          <cell r="X8">
+            <v>2041</v>
+          </cell>
+          <cell r="Y8">
+            <v>2042</v>
+          </cell>
+          <cell r="Z8">
+            <v>2043</v>
+          </cell>
+          <cell r="AA8">
+            <v>2044</v>
+          </cell>
+          <cell r="AB8">
+            <v>2045</v>
+          </cell>
+          <cell r="AC8">
+            <v>2046</v>
+          </cell>
+          <cell r="AD8">
+            <v>2047</v>
+          </cell>
+          <cell r="AE8">
+            <v>2048</v>
+          </cell>
+          <cell r="AF8">
+            <v>2049</v>
+          </cell>
+          <cell r="AG8">
+            <v>2050</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9">
+            <v>2017</v>
+          </cell>
+          <cell r="C9">
+            <v>2018</v>
+          </cell>
+          <cell r="D9">
+            <v>2019</v>
+          </cell>
+          <cell r="E9">
+            <v>2020</v>
+          </cell>
+          <cell r="F9">
+            <v>2021</v>
+          </cell>
+          <cell r="G9">
+            <v>2022</v>
+          </cell>
+          <cell r="H9">
+            <v>2023</v>
+          </cell>
+          <cell r="I9">
+            <v>2024</v>
+          </cell>
+          <cell r="J9">
+            <v>2025</v>
+          </cell>
+          <cell r="K9">
+            <v>2026</v>
+          </cell>
+          <cell r="L9">
+            <v>2027</v>
+          </cell>
+          <cell r="M9">
+            <v>2028</v>
+          </cell>
+          <cell r="N9">
+            <v>2029</v>
+          </cell>
+          <cell r="O9">
+            <v>2030</v>
+          </cell>
+          <cell r="P9">
+            <v>2031</v>
+          </cell>
+          <cell r="Q9">
+            <v>2032</v>
+          </cell>
+          <cell r="R9">
+            <v>2033</v>
+          </cell>
+          <cell r="S9">
+            <v>2034</v>
+          </cell>
+          <cell r="T9">
+            <v>2035</v>
+          </cell>
+          <cell r="U9">
+            <v>2036</v>
+          </cell>
+          <cell r="V9">
+            <v>2037</v>
+          </cell>
+          <cell r="W9">
+            <v>2038</v>
+          </cell>
+          <cell r="X9">
+            <v>2039</v>
+          </cell>
+          <cell r="Y9">
+            <v>2040</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>230</v>
+          </cell>
+          <cell r="E10">
+            <v>490.90909090909093</v>
+          </cell>
+          <cell r="F10">
+            <v>751.81818181818187</v>
+          </cell>
+          <cell r="G10">
+            <v>1012.7272727272727</v>
+          </cell>
+          <cell r="H10">
+            <v>1273.6363636363637</v>
+          </cell>
+          <cell r="I10">
+            <v>1534.5454545454547</v>
+          </cell>
+          <cell r="J10">
+            <v>1795.4545454545457</v>
+          </cell>
+          <cell r="K10">
+            <v>2056.3636363636365</v>
+          </cell>
+          <cell r="L10">
+            <v>2317.2727272727275</v>
+          </cell>
+          <cell r="M10">
+            <v>2578.1818181818185</v>
+          </cell>
+          <cell r="N10">
+            <v>2839.0909090909095</v>
+          </cell>
+          <cell r="O10">
+            <v>3100</v>
+          </cell>
+          <cell r="P10">
+            <v>3424.7905975175636</v>
+          </cell>
+          <cell r="Q10">
+            <v>3746.5013723235993</v>
+          </cell>
+          <cell r="R10">
+            <v>4059.9053441759856</v>
+          </cell>
+          <cell r="S10">
+            <v>4360.3138003408822</v>
+          </cell>
+          <cell r="T10">
+            <v>4643.8345503812225</v>
+          </cell>
+          <cell r="U10">
+            <v>4907.5316444603686</v>
+          </cell>
+          <cell r="V10">
+            <v>5149.4794152991608</v>
+          </cell>
+          <cell r="W10">
+            <v>5368.7217605243968</v>
+          </cell>
+          <cell r="X10">
+            <v>5565.1598514983398</v>
+          </cell>
+          <cell r="Y10">
+            <v>5739.3964545208837</v>
+          </cell>
+          <cell r="Z10">
+            <v>5892.5636833218095</v>
+          </cell>
+          <cell r="AA10">
+            <v>6026.1555256387583</v>
+          </cell>
+          <cell r="AB10">
+            <v>6141.8793779363323</v>
+          </cell>
+          <cell r="AC10">
+            <v>6241.5340085637208</v>
+          </cell>
+          <cell r="AD10">
+            <v>6326.9159508593248</v>
+          </cell>
+          <cell r="AE10">
+            <v>6399.7526614421795</v>
+          </cell>
+          <cell r="AF10">
+            <v>6461.6587298551603</v>
+          </cell>
+          <cell r="AG10">
+            <v>6514.1106231518088</v>
+          </cell>
+          <cell r="AH10">
+            <v>6558.4354749555841</v>
+          </cell>
+          <cell r="AI10">
+            <v>6595.8099219990681</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13">
+            <v>1210000</v>
+          </cell>
+          <cell r="G13">
+            <v>10600000</v>
+          </cell>
+          <cell r="J13">
+            <v>21000000</v>
+          </cell>
+          <cell r="O13">
+            <v>40000000</v>
+          </cell>
+          <cell r="T13">
+            <v>55000000</v>
+          </cell>
+          <cell r="Y13">
+            <v>72000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="11">
+          <cell r="B11">
+            <v>2019</v>
+          </cell>
+          <cell r="C11">
+            <v>2020</v>
+          </cell>
+          <cell r="D11">
+            <v>2021</v>
+          </cell>
+          <cell r="E11">
+            <v>2022</v>
+          </cell>
+          <cell r="F11">
+            <v>2023</v>
+          </cell>
+          <cell r="G11">
+            <v>2024</v>
+          </cell>
+          <cell r="H11">
+            <v>2025</v>
+          </cell>
+          <cell r="I11">
+            <v>2026</v>
+          </cell>
+          <cell r="J11">
+            <v>2027</v>
+          </cell>
+          <cell r="K11">
+            <v>2028</v>
+          </cell>
+          <cell r="L11">
+            <v>2029</v>
+          </cell>
+          <cell r="M11">
+            <v>2030</v>
+          </cell>
+          <cell r="N11">
+            <v>2031</v>
+          </cell>
+          <cell r="O11">
+            <v>2032</v>
+          </cell>
+          <cell r="P11">
+            <v>2033</v>
+          </cell>
+          <cell r="Q11">
+            <v>2034</v>
+          </cell>
+          <cell r="R11">
+            <v>2035</v>
+          </cell>
+          <cell r="S11">
+            <v>2036</v>
+          </cell>
+          <cell r="T11">
+            <v>2037</v>
+          </cell>
+          <cell r="U11">
+            <v>2038</v>
+          </cell>
+          <cell r="V11">
+            <v>2039</v>
+          </cell>
+          <cell r="W11">
+            <v>2040</v>
+          </cell>
+          <cell r="X11">
+            <v>2041</v>
+          </cell>
+          <cell r="Y11">
+            <v>2042</v>
+          </cell>
+          <cell r="Z11">
+            <v>2043</v>
+          </cell>
+          <cell r="AA11">
+            <v>2044</v>
+          </cell>
+          <cell r="AB11">
+            <v>2045</v>
+          </cell>
+          <cell r="AC11">
+            <v>2046</v>
+          </cell>
+          <cell r="AD11">
+            <v>2047</v>
+          </cell>
+          <cell r="AE11">
+            <v>2048</v>
+          </cell>
+          <cell r="AF11">
+            <v>2049</v>
+          </cell>
+          <cell r="AG11">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>EV battery new sales (MWh)</v>
+          </cell>
+          <cell r="B12">
+            <v>230000</v>
+          </cell>
+          <cell r="C12">
+            <v>490909.09090909094</v>
+          </cell>
+          <cell r="D12">
+            <v>751818.18181818188</v>
+          </cell>
+          <cell r="E12">
+            <v>1012727.2727272727</v>
+          </cell>
+          <cell r="F12">
+            <v>1273636.3636363638</v>
+          </cell>
+          <cell r="G12">
+            <v>1534545.4545454548</v>
+          </cell>
+          <cell r="H12">
+            <v>1795454.5454545456</v>
+          </cell>
+          <cell r="I12">
+            <v>2056363.6363636365</v>
+          </cell>
+          <cell r="J12">
+            <v>2317272.7272727275</v>
+          </cell>
+          <cell r="K12">
+            <v>2578181.8181818184</v>
+          </cell>
+          <cell r="L12">
+            <v>2839090.9090909096</v>
+          </cell>
+          <cell r="M12">
+            <v>3100000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>EV battery new sales, extrapolated 2031-2040 (GWh)</v>
+          </cell>
+          <cell r="N13">
+            <v>3424790.5975175635</v>
+          </cell>
+          <cell r="O13">
+            <v>3746501.3723235992</v>
+          </cell>
+          <cell r="P13">
+            <v>4059905.3441759855</v>
+          </cell>
+          <cell r="Q13">
+            <v>4360313.8003408825</v>
+          </cell>
+          <cell r="R13">
+            <v>4643834.5503812227</v>
+          </cell>
+          <cell r="S13">
+            <v>4907531.6444603689</v>
+          </cell>
+          <cell r="T13">
+            <v>5149479.4152991604</v>
+          </cell>
+          <cell r="U13">
+            <v>5368721.7605243968</v>
+          </cell>
+          <cell r="V13">
+            <v>5565159.8514983393</v>
+          </cell>
+          <cell r="W13">
+            <v>5739396.454520884</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>EV battery new sales, extrapolated 2041-2050 (GWh)</v>
+          </cell>
+          <cell r="X14">
+            <v>5892563.6833218094</v>
+          </cell>
+          <cell r="Y14">
+            <v>6026155.5256387582</v>
+          </cell>
+          <cell r="Z14">
+            <v>6141879.3779363325</v>
+          </cell>
+          <cell r="AA14">
+            <v>6241534.0085637206</v>
+          </cell>
+          <cell r="AB14">
+            <v>6326915.950859325</v>
+          </cell>
+          <cell r="AC14">
+            <v>6399752.6614421792</v>
+          </cell>
+          <cell r="AD14">
+            <v>6461658.7298551602</v>
+          </cell>
+          <cell r="AE14">
+            <v>6514110.623151809</v>
+          </cell>
+          <cell r="AF14">
+            <v>6558435.4749555839</v>
+          </cell>
+          <cell r="AG14">
+            <v>6595809.921999068</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>2019</v>
+          </cell>
+          <cell r="D16">
+            <v>2020</v>
+          </cell>
+          <cell r="E16">
+            <v>2021</v>
+          </cell>
+          <cell r="F16">
+            <v>2022</v>
+          </cell>
+          <cell r="G16">
+            <v>2023</v>
+          </cell>
+          <cell r="H16">
+            <v>2024</v>
+          </cell>
+          <cell r="I16">
+            <v>2025</v>
+          </cell>
+          <cell r="J16">
+            <v>2026</v>
+          </cell>
+          <cell r="K16">
+            <v>2027</v>
+          </cell>
+          <cell r="L16">
+            <v>2028</v>
+          </cell>
+          <cell r="M16">
+            <v>2029</v>
+          </cell>
+          <cell r="N16">
+            <v>2030</v>
+          </cell>
+          <cell r="O16">
+            <v>2031</v>
+          </cell>
+          <cell r="P16">
+            <v>2032</v>
+          </cell>
+          <cell r="Q16">
+            <v>2033</v>
+          </cell>
+          <cell r="R16">
+            <v>2034</v>
+          </cell>
+          <cell r="S16">
+            <v>2035</v>
+          </cell>
+          <cell r="T16">
+            <v>2036</v>
+          </cell>
+          <cell r="U16">
+            <v>2037</v>
+          </cell>
+          <cell r="V16">
+            <v>2038</v>
+          </cell>
+          <cell r="W16">
+            <v>2039</v>
+          </cell>
+          <cell r="X16">
+            <v>2040</v>
+          </cell>
+          <cell r="Y16">
+            <v>2041</v>
+          </cell>
+          <cell r="Z16">
+            <v>2042</v>
+          </cell>
+          <cell r="AA16">
+            <v>2043</v>
+          </cell>
+          <cell r="AB16">
+            <v>2044</v>
+          </cell>
+          <cell r="AC16">
+            <v>2045</v>
+          </cell>
+          <cell r="AD16">
+            <v>2046</v>
+          </cell>
+          <cell r="AE16">
+            <v>2047</v>
+          </cell>
+          <cell r="AF16">
+            <v>2048</v>
+          </cell>
+          <cell r="AG16">
+            <v>2049</v>
+          </cell>
+          <cell r="AH16">
+            <v>2050</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>EV battery cap, cumulative (MWh)</v>
+          </cell>
+          <cell r="C17">
+            <v>2730000</v>
+          </cell>
+          <cell r="D17">
+            <v>3220909.0909090908</v>
+          </cell>
+          <cell r="E17">
+            <v>3972727.2727272725</v>
+          </cell>
+          <cell r="F17">
+            <v>4985454.5454545449</v>
+          </cell>
+          <cell r="G17">
+            <v>6259090.9090909082</v>
+          </cell>
+          <cell r="H17">
+            <v>7793636.3636363633</v>
+          </cell>
+          <cell r="I17">
+            <v>9589090.9090909082</v>
+          </cell>
+          <cell r="J17">
+            <v>11645454.545454545</v>
+          </cell>
+          <cell r="K17">
+            <v>13962727.272727273</v>
+          </cell>
+          <cell r="L17">
+            <v>16540909.090909092</v>
+          </cell>
+          <cell r="M17">
+            <v>19380000</v>
+          </cell>
+          <cell r="N17">
+            <v>22480000</v>
+          </cell>
+          <cell r="O17">
+            <v>25904790.597517565</v>
+          </cell>
+          <cell r="P17">
+            <v>29651291.969841164</v>
+          </cell>
+          <cell r="Q17">
+            <v>33711197.314017147</v>
+          </cell>
+          <cell r="R17">
+            <v>38071511.11435803</v>
+          </cell>
+          <cell r="S17">
+            <v>42715345.664739251</v>
+          </cell>
+          <cell r="T17">
+            <v>47622877.309199616</v>
+          </cell>
+          <cell r="U17">
+            <v>52772356.724498779</v>
+          </cell>
+          <cell r="V17">
+            <v>58141078.485023178</v>
+          </cell>
+          <cell r="W17">
+            <v>63706238.336521521</v>
+          </cell>
+          <cell r="X17">
+            <v>69445634.791042402</v>
+          </cell>
+          <cell r="Y17">
+            <v>75338198.474364206</v>
+          </cell>
+          <cell r="Z17">
+            <v>81364354.000002965</v>
+          </cell>
+          <cell r="AA17">
+            <v>87506233.377939299</v>
+          </cell>
+          <cell r="AB17">
+            <v>93747767.386503026</v>
+          </cell>
+          <cell r="AC17">
+            <v>100074683.33736235</v>
+          </cell>
+          <cell r="AD17">
+            <v>106474435.99880452</v>
+          </cell>
+          <cell r="AE17">
+            <v>112936094.72865969</v>
+          </cell>
+          <cell r="AF17">
+            <v>119450205.3518115</v>
+          </cell>
+          <cell r="AG17">
+            <v>126008640.82676709</v>
+          </cell>
+          <cell r="AH17">
+            <v>132604450.74876615</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -6529,109 +8518,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="60.86328125" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" s="13">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
-        <v>60</v>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="14" t="s">
-        <v>52</v>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B9" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B11" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B14" s="14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B15" s="14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B16" t="s">
-        <v>52</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B17" t="s">
-        <v>53</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="2" t="s">
-        <v>57</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" t="s">
-        <v>58</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>66</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" t="s">
-        <v>59</v>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6641,24 +8658,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9:AG9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -6666,7 +8683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>2020</v>
       </c>
@@ -6689,7 +8706,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6715,7 +8732,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6748,7 +8765,7 @@
         <v>4345238.0952380942</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6856,344 +8873,642 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:Y11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14:Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="10.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="20" max="25" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.59765625" bestFit="1" customWidth="1"/>
-    <col min="27" max="29" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="25" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="30" max="31" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
-    <row r="8" spans="1:35" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:35" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8">
+      <c r="B9" s="6">
+        <v>2017</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2018</v>
+      </c>
+      <c r="D9" s="7">
         <v>2019</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>2020</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>2021</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>2022</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>2023</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>2024</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>2025</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>2026</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>2027</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>2028</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>2029</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>2030</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>2031</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>2032</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <v>2033</v>
       </c>
-      <c r="S9" s="8">
+      <c r="S9" s="7">
         <v>2034</v>
       </c>
-      <c r="T9" s="8">
+      <c r="T9" s="7">
         <v>2035</v>
       </c>
-      <c r="U9" s="8">
+      <c r="U9" s="7">
         <v>2036</v>
       </c>
-      <c r="V9" s="8">
+      <c r="V9" s="7">
         <v>2037</v>
       </c>
-      <c r="W9" s="8">
+      <c r="W9" s="7">
         <v>2038</v>
       </c>
-      <c r="X9" s="8">
+      <c r="X9" s="7">
         <v>2039</v>
       </c>
-      <c r="Y9" s="8">
+      <c r="Y9" s="7">
         <v>2040</v>
       </c>
-      <c r="Z9" s="8">
+      <c r="Z9" s="7">
         <v>2041</v>
       </c>
-      <c r="AA9" s="8">
+      <c r="AA9" s="7">
         <v>2042</v>
       </c>
-      <c r="AB9" s="8">
+      <c r="AB9" s="7">
         <v>2043</v>
       </c>
-      <c r="AC9" s="8">
+      <c r="AC9" s="7">
         <v>2044</v>
       </c>
-      <c r="AD9" s="8">
+      <c r="AD9" s="7">
         <v>2045</v>
       </c>
-      <c r="AE9" s="8">
+      <c r="AE9" s="7">
         <v>2046</v>
       </c>
-      <c r="AF9" s="8">
+      <c r="AF9" s="7">
         <v>2047</v>
       </c>
-      <c r="AG9" s="8">
+      <c r="AG9" s="7">
         <v>2048</v>
       </c>
-      <c r="AH9" s="8">
+      <c r="AH9" s="7">
         <v>2049</v>
       </c>
-      <c r="AI9" s="8">
+      <c r="AI9" s="7">
         <v>2050</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="19">
         <v>230</v>
       </c>
-      <c r="E10" s="16">
-        <f>$D$10+($O$10-$D$10)*(E11/$O$11)</f>
-        <v>351.47058823529414</v>
-      </c>
-      <c r="F10" s="16">
-        <f>$D$10+($O$10-$D$10)*(F11/$O$11)</f>
-        <v>403.52941176470586</v>
-      </c>
-      <c r="G10" s="16">
-        <f t="shared" ref="G10:N10" si="0">$D$10+($O$10-$D$10)*(G11/$O$11)</f>
-        <v>498.97058823529409</v>
-      </c>
-      <c r="H10" s="16">
+      <c r="E10" s="14">
+        <f>($O$10-$D$10)/11+D10</f>
+        <v>490.90909090909093</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" ref="F10:N10" si="0">($O$10-$D$10)/11+E10</f>
+        <v>751.81818181818187</v>
+      </c>
+      <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>603.08823529411757</v>
-      </c>
-      <c r="I10" s="16">
+        <v>1012.7272727272727</v>
+      </c>
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>715.88235294117658</v>
-      </c>
-      <c r="J10" s="16">
+        <v>1273.6363636363637</v>
+      </c>
+      <c r="I10" s="14">
         <f t="shared" si="0"/>
-        <v>820</v>
-      </c>
-      <c r="K10" s="16">
+        <v>1534.5454545454547</v>
+      </c>
+      <c r="J10" s="14">
         <f t="shared" si="0"/>
-        <v>950.14705882352939</v>
-      </c>
-      <c r="L10" s="16">
+        <v>1795.4545454545457</v>
+      </c>
+      <c r="K10" s="14">
         <f t="shared" si="0"/>
-        <v>1175.7352941176471</v>
-      </c>
-      <c r="M10" s="16">
+        <v>2056.3636363636365</v>
+      </c>
+      <c r="L10" s="14">
         <f t="shared" si="0"/>
-        <v>1418.6764705882351</v>
-      </c>
-      <c r="N10" s="16">
+        <v>2317.2727272727275</v>
+      </c>
+      <c r="M10" s="14">
         <f t="shared" si="0"/>
-        <v>1687.6470588235293</v>
-      </c>
-      <c r="O10" s="22">
-        <f>2000</f>
-        <v>2000</v>
-      </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
+        <v>2578.1818181818185</v>
+      </c>
+      <c r="N10" s="14">
+        <f t="shared" si="0"/>
+        <v>2839.0909090909095</v>
+      </c>
+      <c r="O10" s="19">
+        <v>3100</v>
+      </c>
+      <c r="P10" s="9">
+        <f>O10*P12/O12</f>
+        <v>3424.7905975175636</v>
+      </c>
+      <c r="Q10" s="9">
+        <f t="shared" ref="Q10:AI10" si="1">P10*Q12/P12</f>
+        <v>3746.5013723235993</v>
+      </c>
+      <c r="R10" s="9">
+        <f t="shared" si="1"/>
+        <v>4059.9053441759856</v>
+      </c>
+      <c r="S10" s="9">
+        <f t="shared" si="1"/>
+        <v>4360.3138003408822</v>
+      </c>
+      <c r="T10" s="9">
+        <f t="shared" si="1"/>
+        <v>4643.8345503812225</v>
+      </c>
+      <c r="U10" s="9">
+        <f t="shared" si="1"/>
+        <v>4907.5316444603686</v>
+      </c>
+      <c r="V10" s="9">
+        <f t="shared" si="1"/>
+        <v>5149.4794152991608</v>
+      </c>
+      <c r="W10" s="9">
+        <f t="shared" si="1"/>
+        <v>5368.7217605243968</v>
+      </c>
+      <c r="X10" s="9">
+        <f t="shared" si="1"/>
+        <v>5565.1598514983398</v>
+      </c>
+      <c r="Y10" s="9">
+        <f t="shared" si="1"/>
+        <v>5739.3964545208837</v>
+      </c>
+      <c r="Z10" s="9">
+        <f t="shared" si="1"/>
+        <v>5892.5636833218095</v>
+      </c>
+      <c r="AA10" s="9">
+        <f t="shared" si="1"/>
+        <v>6026.1555256387583</v>
+      </c>
+      <c r="AB10" s="9">
+        <f t="shared" si="1"/>
+        <v>6141.8793779363323</v>
+      </c>
+      <c r="AC10" s="9">
+        <f t="shared" si="1"/>
+        <v>6241.5340085637208</v>
+      </c>
+      <c r="AD10" s="9">
+        <f t="shared" si="1"/>
+        <v>6326.9159508593248</v>
+      </c>
+      <c r="AE10" s="9">
+        <f t="shared" si="1"/>
+        <v>6399.7526614421795</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="1"/>
+        <v>6461.6587298551603</v>
+      </c>
+      <c r="AG10" s="9">
+        <f t="shared" si="1"/>
+        <v>6514.1106231518088</v>
+      </c>
+      <c r="AH10" s="9">
+        <f t="shared" si="1"/>
+        <v>6558.4354749555841</v>
+      </c>
+      <c r="AI10" s="9">
+        <f t="shared" si="1"/>
+        <v>6595.8099219990681</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="9">
-        <f>G18/$G$20*10000000</f>
-        <v>2375000</v>
-      </c>
-      <c r="E11" s="9">
-        <f t="shared" ref="E11:X11" si="1">H18/$G$20*10000000</f>
-        <v>1750000</v>
-      </c>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>2500000</v>
-      </c>
-      <c r="G11" s="9">
-        <f t="shared" si="1"/>
-        <v>3875000</v>
-      </c>
-      <c r="H11" s="9">
-        <f t="shared" si="1"/>
-        <v>5375000</v>
-      </c>
-      <c r="I11" s="9">
-        <f t="shared" si="1"/>
-        <v>7000000</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="1"/>
-        <v>8500000</v>
-      </c>
-      <c r="K11" s="9">
-        <f t="shared" si="1"/>
-        <v>10375000</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" si="1"/>
-        <v>13625000</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="1"/>
-        <v>17125000</v>
-      </c>
-      <c r="N11" s="9">
-        <f t="shared" si="1"/>
-        <v>21000000</v>
-      </c>
-      <c r="O11" s="9">
-        <f t="shared" si="1"/>
-        <v>25500000</v>
-      </c>
-      <c r="P11" s="9">
-        <f t="shared" si="1"/>
-        <v>29250000</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="1"/>
-        <v>33375000</v>
-      </c>
-      <c r="R11" s="9">
-        <f t="shared" si="1"/>
-        <v>36625000</v>
-      </c>
-      <c r="S11" s="9">
-        <f t="shared" si="1"/>
-        <v>39750000</v>
-      </c>
-      <c r="T11" s="9">
-        <f t="shared" si="1"/>
-        <v>42625000</v>
-      </c>
-      <c r="U11" s="9">
-        <f t="shared" si="1"/>
-        <v>45250000</v>
-      </c>
-      <c r="V11" s="9">
-        <f t="shared" si="1"/>
-        <v>47375000</v>
-      </c>
-      <c r="W11" s="9">
-        <f t="shared" si="1"/>
-        <v>49375000</v>
-      </c>
-      <c r="X11" s="9">
-        <f t="shared" si="1"/>
-        <v>51625000</v>
-      </c>
-      <c r="Y11" s="9">
-        <f>AB18/$G$20*10000000</f>
-        <v>54125000</v>
-      </c>
+      <c r="B11" s="21">
+        <v>1210000</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
+      <c r="B12" s="10">
+        <f>B14</f>
+        <v>3182095.102745194</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" ref="C12:AI12" si="2">C14</f>
+        <v>4428712.3967454107</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="2"/>
+        <v>5877595.2912023542</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="2"/>
+        <v>7551143.5426923158</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="2"/>
+        <v>9470428.4050883837</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="2"/>
+        <v>11653614.786743147</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
+        <v>14114063.323388465</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="2"/>
+        <v>16858218.61021826</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="2"/>
+        <v>19883476.802054916</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="2"/>
+        <v>23176312.773447547</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="2"/>
+        <v>26711008.290551376</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="2"/>
+        <v>30449326.949802719</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="2"/>
+        <v>34341402.949256383</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="2"/>
+        <v>38327942.703854203</v>
+      </c>
+      <c r="P12" s="10">
+        <f t="shared" si="2"/>
+        <v>42343605.740113474</v>
+      </c>
+      <c r="Q12" s="10">
+        <f t="shared" si="2"/>
+        <v>46321190.302687116</v>
+      </c>
+      <c r="R12" s="10">
+        <f t="shared" si="2"/>
+        <v>50196070.778918922</v>
+      </c>
+      <c r="S12" s="10">
+        <f t="shared" si="2"/>
+        <v>53910276.61622262</v>
+      </c>
+      <c r="T12" s="10">
+        <f t="shared" si="2"/>
+        <v>57415685.346190341</v>
+      </c>
+      <c r="U12" s="10">
+        <f t="shared" si="2"/>
+        <v>60675997.318138205</v>
+      </c>
+      <c r="V12" s="10">
+        <f t="shared" si="2"/>
+        <v>63667403.865891263</v>
+      </c>
+      <c r="W12" s="10">
+        <f t="shared" si="2"/>
+        <v>66378083.880746573</v>
+      </c>
+      <c r="X12" s="10">
+        <f t="shared" si="2"/>
+        <v>68806815.460005865</v>
+      </c>
+      <c r="Y12" s="10">
+        <f t="shared" si="2"/>
+        <v>70961051.117284015</v>
+      </c>
+      <c r="Z12" s="10">
+        <f t="shared" si="2"/>
+        <v>72854788.139732406</v>
+      </c>
+      <c r="AA12" s="10">
+        <f t="shared" si="2"/>
+        <v>74506497.971353799</v>
+      </c>
+      <c r="AB12" s="10">
+        <f t="shared" si="2"/>
+        <v>75937290.610170156</v>
+      </c>
+      <c r="AC12" s="10">
+        <f t="shared" si="2"/>
+        <v>77169405.762705743</v>
+      </c>
+      <c r="AD12" s="10">
+        <f t="shared" si="2"/>
+        <v>78225055.502141133</v>
+      </c>
+      <c r="AE12" s="10">
+        <f t="shared" si="2"/>
+        <v>79125597.847288504</v>
+      </c>
+      <c r="AF12" s="10">
+        <f t="shared" si="2"/>
+        <v>79890995.345079988</v>
+      </c>
+      <c r="AG12" s="10">
+        <f t="shared" si="2"/>
+        <v>80539502.816364706</v>
+      </c>
+      <c r="AH12" s="10">
+        <f t="shared" si="2"/>
+        <v>81087528.745491132</v>
+      </c>
+      <c r="AI12" s="10">
+        <f t="shared" si="2"/>
+        <v>81549620.895449489</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
-      <c r="E13" s="12"/>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
+        <f>B11</f>
+        <v>1210000</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23">
+        <v>10600000</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22">
+        <v>21000000</v>
+      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="22">
+        <v>40000000</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="22">
+        <v>55000000</v>
+      </c>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="24">
+        <f>72000000</f>
+        <v>72000000</v>
+      </c>
+      <c r="Z13" s="21"/>
+      <c r="AA13" s="21"/>
+      <c r="AB13" s="21"/>
+      <c r="AC13" s="21"/>
+      <c r="AD13" s="21"/>
+      <c r="AE13" s="21"/>
+      <c r="AF13" s="21"/>
+      <c r="AG13" s="21"/>
+      <c r="AH13" s="21"/>
+      <c r="AI13" s="21"/>
     </row>
-    <row r="17" spans="6:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <f xml:space="preserve"> (83.94318 + (-3.575905 - 83.94318)/(1 + (B9/2030.462)^372.9304))*1000000</f>
+        <v>3182095.102745194</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" ref="C14:AI14" si="3" xml:space="preserve"> (83.94318 + (-3.575905 - 83.94318)/(1 + (C9/2030.462)^372.9304))*1000000</f>
+        <v>4428712.3967454107</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="3"/>
+        <v>5877595.2912023542</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="3"/>
+        <v>7551143.5426923158</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="3"/>
+        <v>9470428.4050883837</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="3"/>
+        <v>11653614.786743147</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="3"/>
+        <v>14114063.323388465</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="3"/>
+        <v>16858218.61021826</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="3"/>
+        <v>19883476.802054916</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="3"/>
+        <v>23176312.773447547</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="3"/>
+        <v>26711008.290551376</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="3"/>
+        <v>30449326.949802719</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="3"/>
+        <v>34341402.949256383</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="3"/>
+        <v>38327942.703854203</v>
+      </c>
+      <c r="P14" s="10">
+        <f t="shared" si="3"/>
+        <v>42343605.740113474</v>
+      </c>
+      <c r="Q14" s="10">
+        <f t="shared" si="3"/>
+        <v>46321190.302687116</v>
+      </c>
+      <c r="R14" s="10">
+        <f t="shared" si="3"/>
+        <v>50196070.778918922</v>
+      </c>
+      <c r="S14" s="10">
+        <f t="shared" si="3"/>
+        <v>53910276.61622262</v>
+      </c>
+      <c r="T14" s="10">
+        <f t="shared" si="3"/>
+        <v>57415685.346190341</v>
+      </c>
+      <c r="U14" s="10">
+        <f t="shared" si="3"/>
+        <v>60675997.318138205</v>
+      </c>
+      <c r="V14" s="10">
+        <f t="shared" si="3"/>
+        <v>63667403.865891263</v>
+      </c>
+      <c r="W14" s="10">
+        <f t="shared" si="3"/>
+        <v>66378083.880746573</v>
+      </c>
+      <c r="X14" s="10">
+        <f t="shared" si="3"/>
+        <v>68806815.460005865</v>
+      </c>
+      <c r="Y14" s="10">
+        <f t="shared" si="3"/>
+        <v>70961051.117284015</v>
+      </c>
+      <c r="Z14" s="10">
+        <f t="shared" si="3"/>
+        <v>72854788.139732406</v>
+      </c>
+      <c r="AA14" s="10">
+        <f t="shared" si="3"/>
+        <v>74506497.971353799</v>
+      </c>
+      <c r="AB14" s="10">
+        <f t="shared" si="3"/>
+        <v>75937290.610170156</v>
+      </c>
+      <c r="AC14" s="10">
+        <f t="shared" si="3"/>
+        <v>77169405.762705743</v>
+      </c>
+      <c r="AD14" s="10">
+        <f t="shared" si="3"/>
+        <v>78225055.502141133</v>
+      </c>
+      <c r="AE14" s="10">
+        <f t="shared" si="3"/>
+        <v>79125597.847288504</v>
+      </c>
+      <c r="AF14" s="10">
+        <f t="shared" si="3"/>
+        <v>79890995.345079988</v>
+      </c>
+      <c r="AG14" s="10">
+        <f t="shared" si="3"/>
+        <v>80539502.816364706</v>
+      </c>
+      <c r="AH14" s="10">
+        <f t="shared" si="3"/>
+        <v>81087528.745491132</v>
+      </c>
+      <c r="AI14" s="10">
+        <f t="shared" si="3"/>
+        <v>81549620.895449489</v>
+      </c>
+    </row>
+    <row r="17" spans="6:28" x14ac:dyDescent="0.25">
       <c r="G17">
         <v>2019</v>
       </c>
@@ -7261,7 +9576,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="6:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>16</v>
       </c>
@@ -7332,7 +9647,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="20" spans="6:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:28" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>20</v>
       </c>
@@ -7348,915 +9663,913 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
-    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="16">
         <v>104988.75274561244</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="20">
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2">
         <v>2019</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="8">
         <f t="array" ref="G2:G13">TRANSPOSE(Calculations!B12:M12)</f>
         <v>230000</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="17">
         <f t="shared" ref="H2:H33" si="0">min+(max-min)/(1+EXP(-$B$5*(F2-ec_50)))</f>
         <v>278783.70203185978</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="21" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A3" s="18" t="s">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="16">
         <v>4569491.3134608204</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="20">
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3">
         <v>2020</v>
       </c>
-      <c r="G3" s="9">
-        <v>351470.58823529416</v>
-      </c>
-      <c r="H3" s="19">
+      <c r="G3" s="8">
+        <v>490909.09090909094</v>
+      </c>
+      <c r="H3" s="17">
         <f t="shared" si="0"/>
         <v>328267.45651416713</v>
       </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="16">
         <v>2031.231161586554</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="20">
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4">
         <v>2021</v>
       </c>
-      <c r="G4" s="9">
-        <v>403529.41176470584</v>
-      </c>
-      <c r="H4" s="19">
+      <c r="G4" s="8">
+        <v>751818.18181818188</v>
+      </c>
+      <c r="H4" s="17">
         <f t="shared" si="0"/>
         <v>390901.62654664449</v>
       </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19" t="s">
+      <c r="I4" s="16"/>
+      <c r="J4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="16">
         <v>0.26214442251490144</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="20">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5">
         <v>2022</v>
       </c>
-      <c r="G5" s="9">
-        <v>498970.5882352941</v>
-      </c>
-      <c r="H5" s="19">
+      <c r="G5" s="8">
+        <v>1012727.2727272727</v>
+      </c>
+      <c r="H5" s="17">
         <f t="shared" si="0"/>
         <v>469595.48318729002</v>
       </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="16"/>
+      <c r="J5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="20">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6">
         <v>2023</v>
       </c>
-      <c r="G6" s="9">
-        <v>603088.23529411759</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="G6" s="8">
+        <v>1273636.3636363638</v>
+      </c>
+      <c r="H6" s="17">
         <f t="shared" si="0"/>
         <v>567551.15074796393</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="17">
         <f>SUMXMY2(G2:G49,H2:H49)</f>
-        <v>29259652454.410839</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="20">
+        <v>125613508614057.38</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7">
         <v>2024</v>
       </c>
-      <c r="G7" s="9">
-        <v>715882.35294117662</v>
-      </c>
-      <c r="H7" s="19">
+      <c r="G7" s="8">
+        <v>1534545.4545454548</v>
+      </c>
+      <c r="H7" s="17">
         <f t="shared" si="0"/>
         <v>688080.8827985992</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="19" t="s">
+      <c r="I7" s="16"/>
+      <c r="J7" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="20">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8">
         <v>2025</v>
       </c>
-      <c r="G8" s="9">
-        <v>820000</v>
-      </c>
-      <c r="H8" s="19">
+      <c r="G8" s="8">
+        <v>1795454.5454545456</v>
+      </c>
+      <c r="H8" s="17">
         <f t="shared" si="0"/>
         <v>834293.57521290798</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="19" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="20">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9">
         <v>2026</v>
       </c>
-      <c r="G9" s="9">
-        <v>950147.0588235294</v>
-      </c>
-      <c r="H9" s="19">
+      <c r="G9" s="8">
+        <v>2056363.6363636365</v>
+      </c>
+      <c r="H9" s="17">
         <f t="shared" si="0"/>
         <v>1008633.9439861275</v>
       </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="19" t="s">
+      <c r="I9" s="16"/>
+      <c r="J9" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A10" s="19" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="20">
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10">
         <v>2027</v>
       </c>
-      <c r="G10" s="9">
-        <v>1175735.294117647</v>
-      </c>
-      <c r="H10" s="19">
+      <c r="G10" s="8">
+        <v>2317272.7272727275</v>
+      </c>
+      <c r="H10" s="17">
         <f t="shared" si="0"/>
         <v>1212295.4353729906</v>
       </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="19" t="s">
+      <c r="I10" s="16"/>
+      <c r="J10" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="20">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11">
         <v>2028</v>
       </c>
-      <c r="G11" s="9">
-        <v>1418676.4705882352</v>
-      </c>
-      <c r="H11" s="19">
+      <c r="G11" s="8">
+        <v>2578181.8181818184</v>
+      </c>
+      <c r="H11" s="17">
         <f t="shared" si="0"/>
         <v>1444589.739180157</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="20">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12">
         <v>2029</v>
       </c>
-      <c r="G12" s="9">
-        <v>1687647.0588235292</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="G12" s="8">
+        <v>2839090.9090909096</v>
+      </c>
+      <c r="H12" s="17">
         <f t="shared" si="0"/>
         <v>1702427.8234259335</v>
       </c>
-      <c r="I12" s="18"/>
-      <c r="J12" s="19" t="s">
+      <c r="I12" s="16"/>
+      <c r="J12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="20">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13">
         <v>2030</v>
       </c>
-      <c r="G13" s="9">
-        <v>2000000</v>
-      </c>
-      <c r="H13" s="19">
+      <c r="G13" s="8">
+        <v>3100000</v>
+      </c>
+      <c r="H13" s="17">
         <f t="shared" si="0"/>
         <v>1980113.8134141492</v>
       </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="20">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14">
         <v>2031</v>
       </c>
-      <c r="G14" s="9">
-        <f t="array" ref="G14:G23">TRANSPOSE(Calculations!N13:W13)</f>
-        <v>2294117.6470588231</v>
-      </c>
-      <c r="H14" s="19">
+      <c r="G14" s="8">
+        <f t="array" ref="G14:G23">TRANSPOSE(Calculations!N14:W14)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
         <f t="shared" si="0"/>
         <v>2269626.0524723819</v>
       </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="20">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15">
         <v>2032</v>
       </c>
-      <c r="G15" s="9">
-        <v>2617647.0588235296</v>
-      </c>
-      <c r="H15" s="19">
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
         <f t="shared" si="0"/>
         <v>2561433.0745960292</v>
       </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="20">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16">
         <v>2033</v>
       </c>
-      <c r="G16" s="9">
-        <v>2872549.0196078434</v>
-      </c>
-      <c r="H16" s="19">
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="17">
         <f t="shared" si="0"/>
         <v>2845699.7623751801</v>
       </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="20">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17">
         <v>2034</v>
       </c>
-      <c r="G17" s="9">
-        <v>3117647.0588235296</v>
-      </c>
-      <c r="H17" s="19">
+      <c r="G17" s="8">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
         <f t="shared" si="0"/>
         <v>3113575.7210382498</v>
       </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="20">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18">
         <v>2035</v>
       </c>
-      <c r="G18" s="9">
-        <v>3343137.254901961</v>
-      </c>
-      <c r="H18" s="19">
+      <c r="G18" s="8">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
         <f t="shared" si="0"/>
         <v>3358221.5158605184</v>
       </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="20">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19">
         <v>2036</v>
       </c>
-      <c r="G19" s="9">
-        <v>3549019.6078431369</v>
-      </c>
-      <c r="H19" s="19">
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
         <f t="shared" si="0"/>
         <v>3575342.1035233433</v>
       </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20">
         <v>2037</v>
       </c>
-      <c r="G20" s="9">
-        <v>3715686.2745098039</v>
-      </c>
-      <c r="H20" s="19">
+      <c r="G20" s="8">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
         <f t="shared" si="0"/>
         <v>3763189.6578150792</v>
       </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="20">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21">
         <v>2038</v>
       </c>
-      <c r="G21" s="9">
-        <v>3872549.0196078434</v>
-      </c>
-      <c r="H21" s="19">
+      <c r="G21" s="8">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
         <f t="shared" si="0"/>
         <v>3922163.6311920611</v>
       </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="20">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22">
         <v>2039</v>
       </c>
-      <c r="G22" s="9">
-        <v>4049019.6078431369</v>
-      </c>
-      <c r="H22" s="19">
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="17">
         <f t="shared" si="0"/>
         <v>4054208.6165724192</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="20">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23">
         <v>2040</v>
       </c>
-      <c r="G23" s="9">
-        <v>4245098.0392156867</v>
-      </c>
-      <c r="H23" s="19">
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
         <f t="shared" si="0"/>
         <v>4162192.4631264298</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="23">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="20">
         <v>2041</v>
       </c>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19">
+      <c r="G24" s="16"/>
+      <c r="H24" s="17">
         <f t="shared" si="0"/>
         <v>4249381.218936245</v>
       </c>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="23">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="20">
         <v>2042</v>
       </c>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19">
+      <c r="G25" s="16"/>
+      <c r="H25" s="17">
         <f t="shared" si="0"/>
         <v>4319057.8987108367</v>
       </c>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="23">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="20">
         <v>2043</v>
       </c>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19">
+      <c r="G26" s="16"/>
+      <c r="H26" s="17">
         <f t="shared" si="0"/>
         <v>4374282.7762160646</v>
       </c>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="23">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="20">
         <v>2044</v>
       </c>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19">
+      <c r="G27" s="16"/>
+      <c r="H27" s="17">
         <f t="shared" si="0"/>
         <v>4417768.075591377</v>
       </c>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="23">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="20">
         <v>2045</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19">
+      <c r="G28" s="16"/>
+      <c r="H28" s="17">
         <f t="shared" si="0"/>
         <v>4451833.4089139272</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="23">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="20">
         <v>2046</v>
       </c>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19">
+      <c r="G29" s="16"/>
+      <c r="H29" s="17">
         <f t="shared" si="0"/>
         <v>4478411.8204253027</v>
       </c>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="23">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="20">
         <v>2047</v>
       </c>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19">
+      <c r="G30" s="16"/>
+      <c r="H30" s="17">
         <f t="shared" si="0"/>
         <v>4499083.5324107874</v>
       </c>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="23">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="20">
         <v>2048</v>
       </c>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19">
+      <c r="G31" s="16"/>
+      <c r="H31" s="17">
         <f t="shared" si="0"/>
         <v>4515121.8487209175</v>
       </c>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="23">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="20">
         <v>2049</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19">
+      <c r="G32" s="16"/>
+      <c r="H32" s="17">
         <f t="shared" si="0"/>
         <v>4527541.6461870577</v>
       </c>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="23">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="20">
         <v>2050</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19">
+      <c r="G33" s="16"/>
+      <c r="H33" s="17">
         <f t="shared" si="0"/>
         <v>4537145.1567553291</v>
       </c>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
+      <c r="O34" s="16"/>
+      <c r="P34" s="16"/>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
+      <c r="O35" s="16"/>
+      <c r="P35" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8265,37 +10578,38 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.86328125" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2019</v>
       </c>
@@ -8393,150 +10707,150 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15">
-        <f>'Grid Battery Storage'!B6</f>
+      <c r="B6" s="13">
+        <f>'[2]Grid Battery Storage'!B6</f>
         <v>23809.523809523806</v>
       </c>
       <c r="C6">
-        <f>TREND('Grid Battery Storage'!$B$6:$C$6,'Grid Battery Storage'!$B$4:$C$4,'Grid Battery Storage'!C8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!C8)</f>
         <v>23809.52380952239</v>
       </c>
       <c r="D6">
-        <f>TREND('Grid Battery Storage'!$B$6:$C$6,'Grid Battery Storage'!$B$4:$C$4,'Grid Battery Storage'!D8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!D8)</f>
         <v>50000</v>
       </c>
       <c r="E6">
-        <f>TREND('Grid Battery Storage'!$B$6:$C$6,'Grid Battery Storage'!$B$4:$C$4,'Grid Battery Storage'!E8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!E8)</f>
         <v>76190.47619047761</v>
       </c>
       <c r="F6">
-        <f>TREND('Grid Battery Storage'!$B$6:$C$6,'Grid Battery Storage'!$B$4:$C$4,'Grid Battery Storage'!F8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!F8)</f>
         <v>102380.95238095522</v>
       </c>
       <c r="G6">
-        <f>TREND('Grid Battery Storage'!$B$6:$C$6,'Grid Battery Storage'!$B$4:$C$4,'Grid Battery Storage'!G8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!G8)</f>
         <v>128571.42857143283</v>
       </c>
       <c r="H6">
-        <f>TREND('Grid Battery Storage'!$B$6:$C$6,'Grid Battery Storage'!$B$4:$C$4,'Grid Battery Storage'!H8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!H8)</f>
         <v>154761.90476190299</v>
       </c>
       <c r="I6">
-        <f>TREND('Grid Battery Storage'!$C$6:$D$6,'Grid Battery Storage'!$C$4:$D$4,'Grid Battery Storage'!I8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!I8)</f>
         <v>238095.2380952239</v>
       </c>
       <c r="J6">
-        <f>TREND('Grid Battery Storage'!$C$6:$D$6,'Grid Battery Storage'!$C$4:$D$4,'Grid Battery Storage'!J8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!J8)</f>
         <v>321428.57142856717</v>
       </c>
       <c r="K6">
-        <f>TREND('Grid Battery Storage'!$C$6:$D$6,'Grid Battery Storage'!$C$4:$D$4,'Grid Battery Storage'!K8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!K8)</f>
         <v>404761.90476191044</v>
       </c>
       <c r="L6">
-        <f>TREND('Grid Battery Storage'!$C$6:$D$6,'Grid Battery Storage'!$C$4:$D$4,'Grid Battery Storage'!L8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!L8)</f>
         <v>488095.2380952239</v>
       </c>
       <c r="M6">
-        <f>TREND('Grid Battery Storage'!$C$6:$D$6,'Grid Battery Storage'!$C$4:$D$4,'Grid Battery Storage'!M8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!M8)</f>
         <v>571428.57142856717</v>
       </c>
       <c r="N6">
-        <f>TREND('Grid Battery Storage'!$D$6:$E$6,'Grid Battery Storage'!$D$4:$E$4,'Grid Battery Storage'!N8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!N8)</f>
         <v>685714.28571429849</v>
       </c>
       <c r="O6">
-        <f>TREND('Grid Battery Storage'!$D$6:$E$6,'Grid Battery Storage'!$D$4:$E$4,'Grid Battery Storage'!O8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!O8)</f>
         <v>800000</v>
       </c>
       <c r="P6">
-        <f>TREND('Grid Battery Storage'!$D$6:$E$6,'Grid Battery Storage'!$D$4:$E$4,'Grid Battery Storage'!P8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!P8)</f>
         <v>914285.71428573132</v>
       </c>
       <c r="Q6">
-        <f>TREND('Grid Battery Storage'!$D$6:$E$6,'Grid Battery Storage'!$D$4:$E$4,'Grid Battery Storage'!Q8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!Q8)</f>
         <v>1028571.4285714328</v>
       </c>
       <c r="R6">
-        <f>TREND('Grid Battery Storage'!$D$6:$E$6,'Grid Battery Storage'!$D$4:$E$4,'Grid Battery Storage'!R8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!R8)</f>
         <v>1142857.1428571343</v>
       </c>
       <c r="S6">
-        <f>TREND('Grid Battery Storage'!$E$6:$F$6,'Grid Battery Storage'!$E$4:$F$4,'Grid Battery Storage'!S8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!S8)</f>
         <v>1319047.6190475821</v>
       </c>
       <c r="T6">
-        <f>TREND('Grid Battery Storage'!$E$6:$F$6,'Grid Battery Storage'!$E$4:$F$4,'Grid Battery Storage'!T8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!T8)</f>
         <v>1495238.0952380896</v>
       </c>
       <c r="U6">
-        <f>TREND('Grid Battery Storage'!$E$6:$F$6,'Grid Battery Storage'!$E$4:$F$4,'Grid Battery Storage'!U8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!U8)</f>
         <v>1671428.5714285374</v>
       </c>
       <c r="V6">
-        <f>TREND('Grid Battery Storage'!$E$6:$F$6,'Grid Battery Storage'!$E$4:$F$4,'Grid Battery Storage'!V8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!V8)</f>
         <v>1847619.0476190448</v>
       </c>
       <c r="W6">
-        <f>TREND('Grid Battery Storage'!$E$6:$F$6,'Grid Battery Storage'!$E$4:$F$4,'Grid Battery Storage'!W8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!W8)</f>
         <v>2023809.5238094926</v>
       </c>
       <c r="X6">
-        <f>TREND('Grid Battery Storage'!$F$6:$G$6,'Grid Battery Storage'!$F$4:$G$4,'Grid Battery Storage'!X8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!X8)</f>
         <v>2261904.7619047761</v>
       </c>
       <c r="Y6">
-        <f>TREND('Grid Battery Storage'!$F$6:$G$6,'Grid Battery Storage'!$F$4:$G$4,'Grid Battery Storage'!Y8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!Y8)</f>
         <v>2500000.0000000596</v>
       </c>
       <c r="Z6">
-        <f>TREND('Grid Battery Storage'!$F$6:$G$6,'Grid Battery Storage'!$F$4:$G$4,'Grid Battery Storage'!Z8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!Z8)</f>
         <v>2738095.2380952835</v>
       </c>
       <c r="AA6">
-        <f>TREND('Grid Battery Storage'!$F$6:$G$6,'Grid Battery Storage'!$F$4:$G$4,'Grid Battery Storage'!AA8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!AA8)</f>
         <v>2976190.4761905074</v>
       </c>
       <c r="AB6">
-        <f>TREND('Grid Battery Storage'!$F$6:$G$6,'Grid Battery Storage'!$F$4:$G$4,'Grid Battery Storage'!AB8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!AB8)</f>
         <v>3214285.7142857313</v>
       </c>
       <c r="AC6">
-        <f>TREND('Grid Battery Storage'!$G$6:$H$6,'Grid Battery Storage'!$G$4:$H$4,'Grid Battery Storage'!AC8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AC8)</f>
         <v>3440476.1904761791</v>
       </c>
       <c r="AD6">
-        <f>TREND('Grid Battery Storage'!$G$6:$H$6,'Grid Battery Storage'!$G$4:$H$4,'Grid Battery Storage'!AD8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AD8)</f>
         <v>3666666.6666666865</v>
       </c>
       <c r="AE6">
-        <f>TREND('Grid Battery Storage'!$G$6:$H$6,'Grid Battery Storage'!$G$4:$H$4,'Grid Battery Storage'!AE8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AE8)</f>
         <v>3892857.1428571343</v>
       </c>
       <c r="AF6">
-        <f>TREND('Grid Battery Storage'!$G$6:$H$6,'Grid Battery Storage'!$G$4:$H$4,'Grid Battery Storage'!AF8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AF8)</f>
         <v>4119047.6190475821</v>
       </c>
       <c r="AG6">
-        <f>TREND('Grid Battery Storage'!$G$6:$H$6,'Grid Battery Storage'!$G$4:$H$4,'Grid Battery Storage'!AG8)</f>
+        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AG8)</f>
         <v>4345238.0952380896</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>2019</v>
       </c>
@@ -8634,150 +10948,150 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
       <c r="B12">
-        <f>'EV Batteries'!D10*1000</f>
+        <f>('[2]EV Batteries'!D10)*(1000)</f>
         <v>230000</v>
       </c>
       <c r="C12">
-        <f>'EV Batteries'!E10*1000</f>
-        <v>351470.58823529416</v>
+        <f>('[2]EV Batteries'!E10)*(1000)</f>
+        <v>490909.09090909094</v>
       </c>
       <c r="D12">
-        <f>'EV Batteries'!F10*1000</f>
-        <v>403529.41176470584</v>
+        <f>('[2]EV Batteries'!F10)*(1000)</f>
+        <v>751818.18181818188</v>
       </c>
       <c r="E12">
-        <f>'EV Batteries'!G10*1000</f>
-        <v>498970.5882352941</v>
+        <f>('[2]EV Batteries'!G10)*(1000)</f>
+        <v>1012727.2727272727</v>
       </c>
       <c r="F12">
-        <f>'EV Batteries'!H10*1000</f>
-        <v>603088.23529411759</v>
+        <f>('[2]EV Batteries'!H10)*(1000)</f>
+        <v>1273636.3636363638</v>
       </c>
       <c r="G12">
-        <f>'EV Batteries'!I10*1000</f>
-        <v>715882.35294117662</v>
+        <f>('[2]EV Batteries'!I10)*(1000)</f>
+        <v>1534545.4545454548</v>
       </c>
       <c r="H12">
-        <f>'EV Batteries'!J10*1000</f>
-        <v>820000</v>
+        <f>('[2]EV Batteries'!J10)*(1000)</f>
+        <v>1795454.5454545456</v>
       </c>
       <c r="I12">
-        <f>'EV Batteries'!K10*1000</f>
-        <v>950147.0588235294</v>
+        <f>('[2]EV Batteries'!K10)*(1000)</f>
+        <v>2056363.6363636365</v>
       </c>
       <c r="J12">
-        <f>'EV Batteries'!L10*1000</f>
-        <v>1175735.294117647</v>
+        <f>('[2]EV Batteries'!L10)*(1000)</f>
+        <v>2317272.7272727275</v>
       </c>
       <c r="K12">
-        <f>'EV Batteries'!M10*1000</f>
-        <v>1418676.4705882352</v>
+        <f>('[2]EV Batteries'!M10)*(1000)</f>
+        <v>2578181.8181818184</v>
       </c>
       <c r="L12">
-        <f>'EV Batteries'!N10*1000</f>
-        <v>1687647.0588235292</v>
+        <f>('[2]EV Batteries'!N10)*(1000)</f>
+        <v>2839090.9090909096</v>
       </c>
       <c r="M12">
-        <f>'EV Batteries'!O10*1000</f>
-        <v>2000000</v>
+        <f>('[2]EV Batteries'!O10)*(1000)</f>
+        <v>3100000</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="N13">
-        <f>$M$12*('EV Batteries'!P11/'EV Batteries'!$O$11)</f>
-        <v>2294117.6470588231</v>
+        <f>('[2]EV Batteries'!P10)*(1000)</f>
+        <v>3424790.5975175635</v>
       </c>
       <c r="O13">
-        <f>$M$12*('EV Batteries'!Q11/'EV Batteries'!$O$11)</f>
-        <v>2617647.0588235296</v>
+        <f>('[2]EV Batteries'!Q10)*(1000)</f>
+        <v>3746501.3723235992</v>
       </c>
       <c r="P13">
-        <f>$M$12*('EV Batteries'!R11/'EV Batteries'!$O$11)</f>
-        <v>2872549.0196078434</v>
+        <f>('[2]EV Batteries'!R10)*(1000)</f>
+        <v>4059905.3441759855</v>
       </c>
       <c r="Q13">
-        <f>$M$12*('EV Batteries'!S11/'EV Batteries'!$O$11)</f>
-        <v>3117647.0588235296</v>
+        <f>('[2]EV Batteries'!S10)*(1000)</f>
+        <v>4360313.8003408825</v>
       </c>
       <c r="R13">
-        <f>$M$12*('EV Batteries'!T11/'EV Batteries'!$O$11)</f>
-        <v>3343137.254901961</v>
+        <f>('[2]EV Batteries'!T10)*(1000)</f>
+        <v>4643834.5503812227</v>
       </c>
       <c r="S13">
-        <f>$M$12*('EV Batteries'!U11/'EV Batteries'!$O$11)</f>
-        <v>3549019.6078431369</v>
+        <f>('[2]EV Batteries'!U10)*(1000)</f>
+        <v>4907531.6444603689</v>
       </c>
       <c r="T13">
-        <f>$M$12*('EV Batteries'!V11/'EV Batteries'!$O$11)</f>
-        <v>3715686.2745098039</v>
+        <f>('[2]EV Batteries'!V10)*(1000)</f>
+        <v>5149479.4152991604</v>
       </c>
       <c r="U13">
-        <f>$M$12*('EV Batteries'!W11/'EV Batteries'!$O$11)</f>
-        <v>3872549.0196078434</v>
+        <f>('[2]EV Batteries'!W10)*(1000)</f>
+        <v>5368721.7605243968</v>
       </c>
       <c r="V13">
-        <f>$M$12*('EV Batteries'!X11/'EV Batteries'!$O$11)</f>
-        <v>4049019.6078431369</v>
+        <f>('[2]EV Batteries'!X10)*(1000)</f>
+        <v>5565159.8514983393</v>
       </c>
       <c r="W13">
-        <f>$M$12*('EV Batteries'!Y11/'EV Batteries'!$O$11)</f>
-        <v>4245098.0392156867</v>
+        <f>('[2]EV Batteries'!Y10)*(1000)</f>
+        <v>5739396.454520884</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
       <c r="X14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!X11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4249381.218936245</v>
+        <f>('[2]EV Batteries'!Z10)*(1000)</f>
+        <v>5892563.6833218094</v>
       </c>
       <c r="Y14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!Y11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4319057.8987108367</v>
+        <f>('[2]EV Batteries'!AA10)*(1000)</f>
+        <v>6026155.5256387582</v>
       </c>
       <c r="Z14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!Z11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4374282.7762160646</v>
+        <f>('[2]EV Batteries'!AB10)*(1000)</f>
+        <v>6141879.3779363325</v>
       </c>
       <c r="AA14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!AA11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4417768.075591377</v>
+        <f>('[2]EV Batteries'!AC10)*(1000)</f>
+        <v>6241534.0085637206</v>
       </c>
       <c r="AB14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!AB11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4451833.4089139272</v>
+        <f>('[2]EV Batteries'!AD10)*(1000)</f>
+        <v>6326915.950859325</v>
       </c>
       <c r="AC14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!AC11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4478411.8204253027</v>
+        <f>('[2]EV Batteries'!AE10)*(1000)</f>
+        <v>6399752.6614421792</v>
       </c>
       <c r="AD14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!AD11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4499083.5324107874</v>
+        <f>('[2]EV Batteries'!AF10)*(1000)</f>
+        <v>6461658.7298551602</v>
       </c>
       <c r="AE14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!AE11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4515121.8487209175</v>
+        <f>('[2]EV Batteries'!AG10)*(1000)</f>
+        <v>6514110.623151809</v>
       </c>
       <c r="AF14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!AF11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4527541.6461870577</v>
+        <f>('[2]EV Batteries'!AH10)*(1000)</f>
+        <v>6558435.4749555839</v>
       </c>
       <c r="AG14">
-        <f>INDEX('EV Sigmoid Fitting'!$H$24:$H$33,MATCH(Calculations!AG11,'EV Sigmoid Fitting'!$F$24:$F$33,0))</f>
-        <v>4537145.1567553291</v>
+        <f>('[2]EV Batteries'!AI10)*(1000)</f>
+        <v>6595809.921999068</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>2018</v>
       </c>
@@ -8878,144 +11192,148 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B17">
+        <f>B18*1000</f>
+        <v>2500000</v>
       </c>
       <c r="C17">
         <f t="shared" ref="C17:AH17" si="0">SUM(B12:B14,B17)</f>
-        <v>230000</v>
+        <v>2730000</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>581470.58823529421</v>
+        <v>3220909.0909090908</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>985000</v>
+        <v>3972727.2727272725</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>1483970.588235294</v>
+        <v>4985454.5454545449</v>
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>2087058.8235294116</v>
+        <v>6259090.9090909082</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>2802941.176470588</v>
+        <v>7793636.3636363633</v>
       </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>3622941.176470588</v>
+        <v>9589090.9090909082</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
-        <v>4573088.2352941176</v>
+        <v>11645454.545454545</v>
       </c>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>5748823.5294117648</v>
+        <v>13962727.272727273</v>
       </c>
       <c r="L17">
         <f t="shared" si="0"/>
-        <v>7167500</v>
+        <v>16540909.090909092</v>
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>8855147.0588235296</v>
+        <v>19380000</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>10855147.05882353</v>
+        <v>22480000</v>
       </c>
       <c r="O17">
         <f t="shared" si="0"/>
-        <v>13149264.705882352</v>
+        <v>25904790.597517565</v>
       </c>
       <c r="P17">
         <f t="shared" si="0"/>
-        <v>15766911.764705881</v>
+        <v>29651291.969841164</v>
       </c>
       <c r="Q17">
         <f t="shared" si="0"/>
-        <v>18639460.784313723</v>
+        <v>33711197.314017147</v>
       </c>
       <c r="R17">
         <f t="shared" si="0"/>
-        <v>21757107.843137253</v>
+        <v>38071511.11435803</v>
       </c>
       <c r="S17">
         <f t="shared" si="0"/>
-        <v>25100245.098039214</v>
+        <v>42715345.664739251</v>
       </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>28649264.705882352</v>
+        <v>47622877.309199616</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>32364950.980392154</v>
+        <v>52772356.724498779</v>
       </c>
       <c r="V17">
         <f t="shared" si="0"/>
-        <v>36237500</v>
+        <v>58141078.485023178</v>
       </c>
       <c r="W17">
         <f t="shared" si="0"/>
-        <v>40286519.607843138</v>
+        <v>63706238.336521521</v>
       </c>
       <c r="X17">
         <f t="shared" si="0"/>
-        <v>44531617.647058822</v>
+        <v>69445634.791042402</v>
       </c>
       <c r="Y17">
         <f t="shared" si="0"/>
-        <v>48780998.865995064</v>
+        <v>75338198.474364206</v>
       </c>
       <c r="Z17">
         <f t="shared" si="0"/>
-        <v>53100056.764705904</v>
+        <v>81364354.000002965</v>
       </c>
       <c r="AA17">
         <f t="shared" si="0"/>
-        <v>57474339.540921971</v>
+        <v>87506233.377939299</v>
       </c>
       <c r="AB17">
         <f t="shared" si="0"/>
-        <v>61892107.616513349</v>
+        <v>93747767.386503026</v>
       </c>
       <c r="AC17">
         <f t="shared" si="0"/>
-        <v>66343941.025427274</v>
+        <v>100074683.33736235</v>
       </c>
       <c r="AD17">
         <f t="shared" si="0"/>
-        <v>70822352.845852584</v>
+        <v>106474435.99880452</v>
       </c>
       <c r="AE17">
         <f t="shared" si="0"/>
-        <v>75321436.378263369</v>
+        <v>112936094.72865969</v>
       </c>
       <c r="AF17">
         <f t="shared" si="0"/>
-        <v>79836558.226984292</v>
+        <v>119450205.3518115</v>
       </c>
       <c r="AG17">
         <f t="shared" si="0"/>
-        <v>84364099.873171344</v>
+        <v>126008640.82676709</v>
       </c>
       <c r="AH17">
         <f t="shared" si="0"/>
-        <v>88901245.029926673</v>
+        <v>132604450.74876615</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="15">
+        <v>55</v>
+      </c>
+      <c r="B18" s="13">
         <v>2500</v>
       </c>
     </row>
@@ -9027,25 +11345,25 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.73046875" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.59765625" bestFit="1" customWidth="1"/>
-    <col min="14" max="35" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2019</v>
       </c>
@@ -9143,137 +11461,137 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <f>Calculations!B6+Calculations!C17</f>
-        <v>253809.52380952382</v>
-      </c>
-      <c r="C2" s="11">
+        <v>2753809.5238095238</v>
+      </c>
+      <c r="C2" s="10">
         <f>Calculations!C6+Calculations!D17</f>
-        <v>605280.1120448166</v>
-      </c>
-      <c r="D2" s="11">
+        <v>3244718.6147186132</v>
+      </c>
+      <c r="D2" s="10">
         <f>Calculations!D6+Calculations!E17</f>
-        <v>1035000</v>
-      </c>
-      <c r="E2" s="11">
+        <v>4022727.2727272725</v>
+      </c>
+      <c r="E2" s="10">
         <f>Calculations!E6+Calculations!F17</f>
-        <v>1560161.0644257716</v>
-      </c>
-      <c r="F2" s="11">
+        <v>5061645.0216450226</v>
+      </c>
+      <c r="F2" s="10">
         <f>Calculations!F6+Calculations!G17</f>
-        <v>2189439.7759103668</v>
-      </c>
-      <c r="G2" s="11">
+        <v>6361471.8614718635</v>
+      </c>
+      <c r="G2" s="10">
         <f>Calculations!G6+Calculations!H17</f>
-        <v>2931512.6050420208</v>
-      </c>
-      <c r="H2" s="11">
+        <v>7922207.7922077961</v>
+      </c>
+      <c r="H2" s="10">
         <f>Calculations!H6+Calculations!I17</f>
-        <v>3777703.0812324909</v>
-      </c>
-      <c r="I2" s="11">
+        <v>9743852.8138528112</v>
+      </c>
+      <c r="I2" s="10">
         <f>Calculations!I6+Calculations!J17</f>
-        <v>4811183.4733893415</v>
-      </c>
-      <c r="J2" s="11">
+        <v>11883549.783549769</v>
+      </c>
+      <c r="J2" s="10">
         <f>Calculations!J6+Calculations!K17</f>
-        <v>6070252.100840332</v>
-      </c>
-      <c r="K2" s="11">
+        <v>14284155.844155841</v>
+      </c>
+      <c r="K2" s="10">
         <f>Calculations!K6+Calculations!L17</f>
-        <v>7572261.9047619104</v>
-      </c>
-      <c r="L2" s="11">
+        <v>16945670.995671004</v>
+      </c>
+      <c r="L2" s="10">
         <f>Calculations!L6+Calculations!M17</f>
-        <v>9343242.2969187535</v>
-      </c>
-      <c r="M2" s="11">
+        <v>19868095.238095224</v>
+      </c>
+      <c r="M2" s="10">
         <f>Calculations!M6+Calculations!N17</f>
-        <v>11426575.630252097</v>
-      </c>
-      <c r="N2" s="11">
+        <v>23051428.571428567</v>
+      </c>
+      <c r="N2" s="10">
         <f>Calculations!N6+Calculations!O17</f>
-        <v>13834978.99159665</v>
-      </c>
-      <c r="O2" s="11">
+        <v>26590504.883231863</v>
+      </c>
+      <c r="O2" s="10">
         <f>Calculations!O6+Calculations!P17</f>
-        <v>16566911.764705881</v>
-      </c>
-      <c r="P2" s="11">
+        <v>30451291.969841164</v>
+      </c>
+      <c r="P2" s="10">
         <f>Calculations!P6+Calculations!Q17</f>
-        <v>19553746.498599455</v>
-      </c>
-      <c r="Q2" s="11">
+        <v>34625483.028302878</v>
+      </c>
+      <c r="Q2" s="10">
         <f>Calculations!Q6+Calculations!R17</f>
-        <v>22785679.271708686</v>
-      </c>
-      <c r="R2" s="11">
+        <v>39100082.542929463</v>
+      </c>
+      <c r="R2" s="10">
         <f>Calculations!R6+Calculations!S17</f>
-        <v>26243102.240896348</v>
-      </c>
-      <c r="S2" s="11">
+        <v>43858202.807596385</v>
+      </c>
+      <c r="S2" s="10">
         <f>Calculations!S6+Calculations!T17</f>
-        <v>29968312.324929934</v>
-      </c>
-      <c r="T2" s="11">
+        <v>48941924.928247198</v>
+      </c>
+      <c r="T2" s="10">
         <f>Calculations!T6+Calculations!U17</f>
-        <v>33860189.075630248</v>
-      </c>
-      <c r="U2" s="11">
+        <v>54267594.819736868</v>
+      </c>
+      <c r="U2" s="10">
         <f>Calculations!U6+Calculations!V17</f>
-        <v>37908928.571428537</v>
-      </c>
-      <c r="V2" s="11">
+        <v>59812507.056451716</v>
+      </c>
+      <c r="V2" s="10">
         <f>Calculations!V6+Calculations!W17</f>
-        <v>42134138.655462183</v>
-      </c>
-      <c r="W2" s="11">
+        <v>65553857.384140566</v>
+      </c>
+      <c r="W2" s="10">
         <f>Calculations!W6+Calculations!X17</f>
-        <v>46555427.170868315</v>
-      </c>
-      <c r="X2" s="11">
+        <v>71469444.314851895</v>
+      </c>
+      <c r="X2" s="10">
         <f>Calculations!X6+Calculations!Y17</f>
-        <v>51042903.62789984</v>
-      </c>
-      <c r="Y2" s="11">
+        <v>77600103.236268982</v>
+      </c>
+      <c r="Y2" s="10">
         <f>Calculations!Y6+Calculations!Z17</f>
-        <v>55600056.764705963</v>
-      </c>
-      <c r="Z2" s="11">
+        <v>83864354.000003025</v>
+      </c>
+      <c r="Z2" s="10">
         <f>Calculations!Z6+Calculations!AA17</f>
-        <v>60212434.779017255</v>
-      </c>
-      <c r="AA2" s="11">
+        <v>90244328.616034582</v>
+      </c>
+      <c r="AA2" s="10">
         <f>Calculations!AA6+Calculations!AB17</f>
-        <v>64868298.092703857</v>
-      </c>
-      <c r="AB2" s="11">
+        <v>96723957.862693533</v>
+      </c>
+      <c r="AB2" s="10">
         <f>Calculations!AB6+Calculations!AC17</f>
-        <v>69558226.739713013</v>
-      </c>
-      <c r="AC2" s="11">
+        <v>103288969.05164808</v>
+      </c>
+      <c r="AC2" s="10">
         <f>Calculations!AC6+Calculations!AD17</f>
-        <v>74262829.036328763</v>
-      </c>
-      <c r="AD2" s="11">
+        <v>109914912.1892807</v>
+      </c>
+      <c r="AD2" s="10">
         <f>Calculations!AD6+Calculations!AE17</f>
-        <v>78988103.044930056</v>
-      </c>
-      <c r="AE2" s="11">
+        <v>116602761.39532638</v>
+      </c>
+      <c r="AE2" s="10">
         <f>Calculations!AE6+Calculations!AF17</f>
-        <v>83729415.369841427</v>
-      </c>
-      <c r="AF2" s="11">
+        <v>123343062.49466863</v>
+      </c>
+      <c r="AF2" s="10">
         <f>Calculations!AF6+Calculations!AG17</f>
-        <v>88483147.492218927</v>
-      </c>
-      <c r="AG2" s="11">
+        <v>130127688.44581467</v>
+      </c>
+      <c r="AG2" s="10">
         <f>Calculations!AG6+Calculations!AH17</f>
-        <v>93246483.125164762</v>
+        <v>136949688.84400424</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{008D9D4E-A250-406B-A4A4-9DDC8AD5605F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB597E2-6E87-4DE2-BE47-1987EC78D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12195" yWindow="225" windowWidth="16605" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,9 @@
     <sheet name="EV Batteries" sheetId="5" r:id="rId3"/>
     <sheet name="EV Sigmoid Fitting" sheetId="10" r:id="rId4"/>
     <sheet name="Calculations" sheetId="7" r:id="rId5"/>
-    <sheet name="BGBSC" sheetId="6" r:id="rId6"/>
+    <sheet name="SYGBSC" sheetId="11" r:id="rId6"/>
+    <sheet name="BGBSC" sheetId="6" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="ec_50">'EV Sigmoid Fitting'!$B$4</definedName>
     <definedName name="max">'EV Sigmoid Fitting'!$B$3</definedName>
@@ -80,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -308,6 +305,9 @@
   <si>
     <t>data from the BNEF EVO.</t>
   </si>
+  <si>
+    <t>California</t>
+  </si>
 </sst>
 </file>
 
@@ -472,7 +472,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -520,6 +520,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -664,112 +665,106 @@
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
-            <c:numRef>
-              <c:f>'[2]EV Batteries'!$B$9:$Y$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2040</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="24"/>
+              <c:pt idx="0">
+                <c:v>2017</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2018</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2040</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>'[2]EV Batteries'!$B$13:$Y$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>1210000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10600000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>40000000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55000000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>72000000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="24"/>
+              <c:pt idx="0">
+                <c:v>1210000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10600000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>40000000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>55000000</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>72000000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -1019,15 +1014,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>y</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1052,184 +1039,178 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$G$2:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2375000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3875000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5375000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10375000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13625000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17125000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29250000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33375000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36625000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42625000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45250000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47375000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49375000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51625000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54125000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2375000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1750000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2500000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3875000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5375000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7000000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8500000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10375000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13625000</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17125000</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>25500000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29250000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>33375000</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36625000</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39750000</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42625000</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45250000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>47375000</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49375000</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51625000</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>54125000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1242,15 +1223,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ycalc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ycalc</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1275,214 +1248,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$H$2:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1389132.164056371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021843.2718926258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2835096.85528416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3872186.6405841364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5181480.7302558515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6813588.8256108928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8816233.2840826623</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11226473.258701244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14060660.844756193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17303745.690459114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20900972.172630183</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24755807.045043826</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28737059.300076034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32695224.467196576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36484206.532142162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39982014.338317864</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43104531.090709515</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45809663.601785377</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48092978.656097099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49978278.595441304</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51506844.678802423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52727977.781544022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53692031.914074436</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54446041.034588695</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55031465.127539933</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55483417.471983574</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55830797.702772141</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56096900.262841031</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56300214.433481641</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56455248.150785372</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56573288.007629298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>56663058.09199407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>1389132.164056371</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021843.2718926258</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2835096.85528416</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3872186.6405841364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5181480.7302558515</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6813588.8256108928</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8816233.2840826623</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11226473.258701244</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>14060660.844756193</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17303745.690459114</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20900972.172630183</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>24755807.045043826</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28737059.300076034</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>32695224.467196576</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36484206.532142162</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39982014.338317864</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>43104531.090709515</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45809663.601785377</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>48092978.656097099</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49978278.595441304</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51506844.678802423</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>52727977.781544022</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>53692031.914074436</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>54446041.034588695</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>55031465.127539933</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>55483417.471983574</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>55830797.702772141</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>56096900.262841031</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>56300214.433481641</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>56455248.150785372</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>56573288.007629298</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>56663058.09199407</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1763,15 +1730,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>y</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1796,184 +1755,178 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$G$2:$G$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2375000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1750000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2500000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3875000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5375000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8500000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10375000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13625000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17125000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21000000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>25500000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29250000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>33375000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36625000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39750000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42625000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45250000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>47375000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49375000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51625000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>54125000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2375000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1750000</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2500000</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3875000</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5375000</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7000000</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8500000</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10375000</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13625000</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17125000</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>21000000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>25500000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>29250000</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>33375000</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36625000</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39750000</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42625000</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45250000</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>47375000</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49375000</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51625000</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>54125000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -1986,15 +1939,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ycalc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>ycalc</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2019,214 +1964,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$2:$F$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[1]Sheet1!$H$2:$H$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
-                <c:pt idx="0">
-                  <c:v>1389132.164056371</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2021843.2718926258</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2835096.85528416</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3872186.6405841364</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5181480.7302558515</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6813588.8256108928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8816233.2840826623</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11226473.258701244</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14060660.844756193</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>17303745.690459114</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20900972.172630183</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24755807.045043826</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28737059.300076034</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>32695224.467196576</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36484206.532142162</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>39982014.338317864</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43104531.090709515</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>45809663.601785377</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>48092978.656097099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>49978278.595441304</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51506844.678802423</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>52727977.781544022</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>53692031.914074436</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>54446041.034588695</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>55031465.127539933</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>55483417.471983574</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>55830797.702772141</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>56096900.262841031</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>56300214.433481641</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>56455248.150785372</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>56573288.007629298</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>56663058.09199407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="34"/>
+              <c:pt idx="0">
+                <c:v>1389132.164056371</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2021843.2718926258</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2835096.85528416</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>3872186.6405841364</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5181480.7302558515</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6813588.8256108928</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8816233.2840826623</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11226473.258701244</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>14060660.844756193</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>17303745.690459114</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>20900972.172630183</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>24755807.045043826</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>28737059.300076034</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>32695224.467196576</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>36484206.532142162</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>39982014.338317864</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>43104531.090709515</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>45809663.601785377</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>48092978.656097099</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>49978278.595441304</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>51506844.678802423</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>52727977.781544022</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>53692031.914074436</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>54446041.034588695</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>55031465.127539933</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>55483417.471983574</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>55830797.702772141</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>56096900.262841031</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>56300214.433481641</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>56455248.150785372</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>56573288.007629298</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>56663058.09199407</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -2537,15 +2476,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales (MWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales (MWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2572,154 +2503,148 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$12:$AG$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>230000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>490909.09090909094</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>751818.18181818188</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1012727.2727272727</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1273636.3636363638</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1534545.4545454548</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1795454.5454545456</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2056363.6363636365</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2317272.7272727275</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2578181.8181818184</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2839090.9090909096</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>230000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>490909.09090909094</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>751818.18181818188</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>1012727.2727272727</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>1273636.3636363638</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>1534545.4545454548</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>1795454.5454545456</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2056363.6363636365</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2317272.7272727275</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2578181.8181818184</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2839090.9090909096</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>3100000</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2732,15 +2657,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$13</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales, extrapolated 2031-2040 (GWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2767,148 +2684,142 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$13:$AK$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="12">
-                  <c:v>3424790.5975175635</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3746501.3723235992</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4059905.3441759855</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4360313.8003408825</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>4643834.5503812227</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>4907531.6444603689</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5149479.4152991604</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5368721.7605243968</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5565159.8514983393</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5739396.454520884</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="12">
+                <c:v>3424790.5975175635</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>3746501.3723235992</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>4059905.3441759855</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>4360313.8003408825</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>4643834.5503812227</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>4907531.6444603689</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>5149479.4152991604</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>5368721.7605243968</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>5565159.8514983393</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>5739396.454520884</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -2921,15 +2832,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$14</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery new sales, extrapolated 2041-2050 (GWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -2956,148 +2859,142 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$11:$AG$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$B$14:$AK$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="22">
-                  <c:v>5892563.6833218094</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6026155.5256387582</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6141879.3779363325</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6241534.0085637206</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6326915.950859325</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6399752.6614421792</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6461658.7298551602</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6514110.623151809</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6558435.4749555839</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6595809.921999068</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="36"/>
+              <c:pt idx="22">
+                <c:v>5892563.6833218094</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>6026155.5256387582</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>6141879.3779363325</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>6241534.0085637206</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>6326915.950859325</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>6399752.6614421792</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>6461658.7298551602</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>6514110.623151809</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>6558435.4749555839</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>6595809.921999068</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="1"/>
           <c:extLst>
@@ -3373,15 +3270,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>[2]Calculations!$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EV battery cap, cumulative (MWh)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>EV battery cap, cumulative (MWh)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -3408,214 +3297,208 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$C$16:$AH$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2023</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2024</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2025</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2026</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2028</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2029</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2030</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2031</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2032</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2034</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2035</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2037</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2038</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2039</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2040</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2041</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2042</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2043</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2044</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2045</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2046</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2047</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2049</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2050</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2019</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2020</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>2021</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>2022</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>2023</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>2024</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>2025</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>2026</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>2027</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>2028</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>2029</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>2030</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>2031</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>2032</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>2033</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>2034</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>2035</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>2036</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>2037</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>2038</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>2039</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>2040</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>2041</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>2042</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>2043</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>2044</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>2045</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>2046</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>2047</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>2048</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>2049</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>2050</c:v>
+              </c:pt>
+            </c:numLit>
           </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>[2]Calculations!$C$17:$AH$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
-                <c:pt idx="0">
-                  <c:v>2730000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3220909.0909090908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3972727.2727272725</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4985454.5454545449</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6259090.9090909082</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7793636.3636363633</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9589090.9090909082</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11645454.545454545</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13962727.272727273</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16540909.090909092</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19380000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>22480000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>25904790.597517565</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>29651291.969841164</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>33711197.314017147</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>38071511.11435803</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>42715345.664739251</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>47622877.309199616</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>52772356.724498779</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>58141078.485023178</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>63706238.336521521</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>69445634.791042402</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>75338198.474364206</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>81364354.000002965</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>87506233.377939299</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>93747767.386503026</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>100074683.33736235</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>106474435.99880452</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>112936094.72865969</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>119450205.3518115</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>126008640.82676709</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>132604450.74876615</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="32"/>
+              <c:pt idx="0">
+                <c:v>2730000</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3220909.0909090908</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3972727.2727272725</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4985454.5454545449</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6259090.9090909082</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7793636.3636363633</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9589090.9090909082</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>11645454.545454545</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13962727.272727273</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>16540909.090909092</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>19380000</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>22480000</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>25904790.597517565</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>29651291.969841164</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>33711197.314017147</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>38071511.11435803</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>42715345.664739251</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>47622877.309199616</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>52772356.724498779</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>58141078.485023178</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>63706238.336521521</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>69445634.791042402</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>75338198.474364206</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>81364354.000002965</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>87506233.377939299</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>93747767.386503026</c:v>
+              </c:pt>
+              <c:pt idx="26">
+                <c:v>100074683.33736235</c:v>
+              </c:pt>
+              <c:pt idx="27">
+                <c:v>106474435.99880452</c:v>
+              </c:pt>
+              <c:pt idx="28">
+                <c:v>112936094.72865969</c:v>
+              </c:pt>
+              <c:pt idx="29">
+                <c:v>119450205.3518115</c:v>
+              </c:pt>
+              <c:pt idx="30">
+                <c:v>126008640.82676709</c:v>
+              </c:pt>
+              <c:pt idx="31">
+                <c:v>132604450.74876615</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
@@ -7136,1126 +7019,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="G1" t="str">
-            <v>y</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>ycalc</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="F2">
-            <v>2019</v>
-          </cell>
-          <cell r="G2">
-            <v>2375000</v>
-          </cell>
-          <cell r="H2">
-            <v>1389132.164056371</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="F3">
-            <v>2020</v>
-          </cell>
-          <cell r="G3">
-            <v>1750000</v>
-          </cell>
-          <cell r="H3">
-            <v>2021843.2718926258</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="F4">
-            <v>2021</v>
-          </cell>
-          <cell r="G4">
-            <v>2500000</v>
-          </cell>
-          <cell r="H4">
-            <v>2835096.85528416</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="F5">
-            <v>2022</v>
-          </cell>
-          <cell r="G5">
-            <v>3875000</v>
-          </cell>
-          <cell r="H5">
-            <v>3872186.6405841364</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="F6">
-            <v>2023</v>
-          </cell>
-          <cell r="G6">
-            <v>5375000</v>
-          </cell>
-          <cell r="H6">
-            <v>5181480.7302558515</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="F7">
-            <v>2024</v>
-          </cell>
-          <cell r="G7">
-            <v>7000000</v>
-          </cell>
-          <cell r="H7">
-            <v>6813588.8256108928</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="F8">
-            <v>2025</v>
-          </cell>
-          <cell r="G8">
-            <v>8500000</v>
-          </cell>
-          <cell r="H8">
-            <v>8816233.2840826623</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="F9">
-            <v>2026</v>
-          </cell>
-          <cell r="G9">
-            <v>10375000</v>
-          </cell>
-          <cell r="H9">
-            <v>11226473.258701244</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="F10">
-            <v>2027</v>
-          </cell>
-          <cell r="G10">
-            <v>13625000</v>
-          </cell>
-          <cell r="H10">
-            <v>14060660.844756193</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="F11">
-            <v>2028</v>
-          </cell>
-          <cell r="G11">
-            <v>17125000</v>
-          </cell>
-          <cell r="H11">
-            <v>17303745.690459114</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="F12">
-            <v>2029</v>
-          </cell>
-          <cell r="G12">
-            <v>21000000</v>
-          </cell>
-          <cell r="H12">
-            <v>20900972.172630183</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="F13">
-            <v>2030</v>
-          </cell>
-          <cell r="G13">
-            <v>25500000</v>
-          </cell>
-          <cell r="H13">
-            <v>24755807.045043826</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="F14">
-            <v>2031</v>
-          </cell>
-          <cell r="G14">
-            <v>29250000</v>
-          </cell>
-          <cell r="H14">
-            <v>28737059.300076034</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="F15">
-            <v>2032</v>
-          </cell>
-          <cell r="G15">
-            <v>33375000</v>
-          </cell>
-          <cell r="H15">
-            <v>32695224.467196576</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="F16">
-            <v>2033</v>
-          </cell>
-          <cell r="G16">
-            <v>36625000</v>
-          </cell>
-          <cell r="H16">
-            <v>36484206.532142162</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="F17">
-            <v>2034</v>
-          </cell>
-          <cell r="G17">
-            <v>39750000</v>
-          </cell>
-          <cell r="H17">
-            <v>39982014.338317864</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="F18">
-            <v>2035</v>
-          </cell>
-          <cell r="G18">
-            <v>42625000</v>
-          </cell>
-          <cell r="H18">
-            <v>43104531.090709515</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="F19">
-            <v>2036</v>
-          </cell>
-          <cell r="G19">
-            <v>45250000</v>
-          </cell>
-          <cell r="H19">
-            <v>45809663.601785377</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="F20">
-            <v>2037</v>
-          </cell>
-          <cell r="G20">
-            <v>47375000</v>
-          </cell>
-          <cell r="H20">
-            <v>48092978.656097099</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="F21">
-            <v>2038</v>
-          </cell>
-          <cell r="G21">
-            <v>49375000</v>
-          </cell>
-          <cell r="H21">
-            <v>49978278.595441304</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="F22">
-            <v>2039</v>
-          </cell>
-          <cell r="G22">
-            <v>51625000</v>
-          </cell>
-          <cell r="H22">
-            <v>51506844.678802423</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="F23">
-            <v>2040</v>
-          </cell>
-          <cell r="G23">
-            <v>54125000</v>
-          </cell>
-          <cell r="H23">
-            <v>52727977.781544022</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="F24">
-            <v>2041</v>
-          </cell>
-          <cell r="H24">
-            <v>53692031.914074436</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="F25">
-            <v>2042</v>
-          </cell>
-          <cell r="H25">
-            <v>54446041.034588695</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="F26">
-            <v>2043</v>
-          </cell>
-          <cell r="H26">
-            <v>55031465.127539933</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="F27">
-            <v>2044</v>
-          </cell>
-          <cell r="H27">
-            <v>55483417.471983574</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="F28">
-            <v>2045</v>
-          </cell>
-          <cell r="H28">
-            <v>55830797.702772141</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="F29">
-            <v>2046</v>
-          </cell>
-          <cell r="H29">
-            <v>56096900.262841031</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="F30">
-            <v>2047</v>
-          </cell>
-          <cell r="H30">
-            <v>56300214.433481641</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="F31">
-            <v>2048</v>
-          </cell>
-          <cell r="H31">
-            <v>56455248.150785372</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="F32">
-            <v>2049</v>
-          </cell>
-          <cell r="H32">
-            <v>56573288.007629298</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="F33">
-            <v>2050</v>
-          </cell>
-          <cell r="H33">
-            <v>56663058.09199407</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Grid Battery Storage"/>
-      <sheetName val="EV Sigmoid Fitting"/>
-      <sheetName val="EV Batteries"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="BGBSC BNEF 2022 historical data"/>
-      <sheetName val="BGBSC BNEF 2023 projection"/>
-      <sheetName val="BGBSC DOE 2022 historical data"/>
-      <sheetName val="BGBSC BNEF 2022 historic 18.9%"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="B4">
-            <v>2020</v>
-          </cell>
-          <cell r="C4">
-            <v>2025</v>
-          </cell>
-          <cell r="D4">
-            <v>2030</v>
-          </cell>
-          <cell r="E4">
-            <v>2035</v>
-          </cell>
-          <cell r="F4">
-            <v>2040</v>
-          </cell>
-          <cell r="G4">
-            <v>2045</v>
-          </cell>
-          <cell r="H4">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>23809.523809523806</v>
-          </cell>
-          <cell r="C6">
-            <v>154761.90476190476</v>
-          </cell>
-          <cell r="D6">
-            <v>571428.57142857148</v>
-          </cell>
-          <cell r="E6">
-            <v>1142857.142857143</v>
-          </cell>
-          <cell r="F6">
-            <v>2023809.5238095236</v>
-          </cell>
-          <cell r="G6">
-            <v>3214285.7142857141</v>
-          </cell>
-          <cell r="H6">
-            <v>4345238.0952380942</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8">
-            <v>2020</v>
-          </cell>
-          <cell r="D8">
-            <v>2021</v>
-          </cell>
-          <cell r="E8">
-            <v>2022</v>
-          </cell>
-          <cell r="F8">
-            <v>2023</v>
-          </cell>
-          <cell r="G8">
-            <v>2024</v>
-          </cell>
-          <cell r="H8">
-            <v>2025</v>
-          </cell>
-          <cell r="I8">
-            <v>2026</v>
-          </cell>
-          <cell r="J8">
-            <v>2027</v>
-          </cell>
-          <cell r="K8">
-            <v>2028</v>
-          </cell>
-          <cell r="L8">
-            <v>2029</v>
-          </cell>
-          <cell r="M8">
-            <v>2030</v>
-          </cell>
-          <cell r="N8">
-            <v>2031</v>
-          </cell>
-          <cell r="O8">
-            <v>2032</v>
-          </cell>
-          <cell r="P8">
-            <v>2033</v>
-          </cell>
-          <cell r="Q8">
-            <v>2034</v>
-          </cell>
-          <cell r="R8">
-            <v>2035</v>
-          </cell>
-          <cell r="S8">
-            <v>2036</v>
-          </cell>
-          <cell r="T8">
-            <v>2037</v>
-          </cell>
-          <cell r="U8">
-            <v>2038</v>
-          </cell>
-          <cell r="V8">
-            <v>2039</v>
-          </cell>
-          <cell r="W8">
-            <v>2040</v>
-          </cell>
-          <cell r="X8">
-            <v>2041</v>
-          </cell>
-          <cell r="Y8">
-            <v>2042</v>
-          </cell>
-          <cell r="Z8">
-            <v>2043</v>
-          </cell>
-          <cell r="AA8">
-            <v>2044</v>
-          </cell>
-          <cell r="AB8">
-            <v>2045</v>
-          </cell>
-          <cell r="AC8">
-            <v>2046</v>
-          </cell>
-          <cell r="AD8">
-            <v>2047</v>
-          </cell>
-          <cell r="AE8">
-            <v>2048</v>
-          </cell>
-          <cell r="AF8">
-            <v>2049</v>
-          </cell>
-          <cell r="AG8">
-            <v>2050</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="9">
-          <cell r="B9">
-            <v>2017</v>
-          </cell>
-          <cell r="C9">
-            <v>2018</v>
-          </cell>
-          <cell r="D9">
-            <v>2019</v>
-          </cell>
-          <cell r="E9">
-            <v>2020</v>
-          </cell>
-          <cell r="F9">
-            <v>2021</v>
-          </cell>
-          <cell r="G9">
-            <v>2022</v>
-          </cell>
-          <cell r="H9">
-            <v>2023</v>
-          </cell>
-          <cell r="I9">
-            <v>2024</v>
-          </cell>
-          <cell r="J9">
-            <v>2025</v>
-          </cell>
-          <cell r="K9">
-            <v>2026</v>
-          </cell>
-          <cell r="L9">
-            <v>2027</v>
-          </cell>
-          <cell r="M9">
-            <v>2028</v>
-          </cell>
-          <cell r="N9">
-            <v>2029</v>
-          </cell>
-          <cell r="O9">
-            <v>2030</v>
-          </cell>
-          <cell r="P9">
-            <v>2031</v>
-          </cell>
-          <cell r="Q9">
-            <v>2032</v>
-          </cell>
-          <cell r="R9">
-            <v>2033</v>
-          </cell>
-          <cell r="S9">
-            <v>2034</v>
-          </cell>
-          <cell r="T9">
-            <v>2035</v>
-          </cell>
-          <cell r="U9">
-            <v>2036</v>
-          </cell>
-          <cell r="V9">
-            <v>2037</v>
-          </cell>
-          <cell r="W9">
-            <v>2038</v>
-          </cell>
-          <cell r="X9">
-            <v>2039</v>
-          </cell>
-          <cell r="Y9">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="D10">
-            <v>230</v>
-          </cell>
-          <cell r="E10">
-            <v>490.90909090909093</v>
-          </cell>
-          <cell r="F10">
-            <v>751.81818181818187</v>
-          </cell>
-          <cell r="G10">
-            <v>1012.7272727272727</v>
-          </cell>
-          <cell r="H10">
-            <v>1273.6363636363637</v>
-          </cell>
-          <cell r="I10">
-            <v>1534.5454545454547</v>
-          </cell>
-          <cell r="J10">
-            <v>1795.4545454545457</v>
-          </cell>
-          <cell r="K10">
-            <v>2056.3636363636365</v>
-          </cell>
-          <cell r="L10">
-            <v>2317.2727272727275</v>
-          </cell>
-          <cell r="M10">
-            <v>2578.1818181818185</v>
-          </cell>
-          <cell r="N10">
-            <v>2839.0909090909095</v>
-          </cell>
-          <cell r="O10">
-            <v>3100</v>
-          </cell>
-          <cell r="P10">
-            <v>3424.7905975175636</v>
-          </cell>
-          <cell r="Q10">
-            <v>3746.5013723235993</v>
-          </cell>
-          <cell r="R10">
-            <v>4059.9053441759856</v>
-          </cell>
-          <cell r="S10">
-            <v>4360.3138003408822</v>
-          </cell>
-          <cell r="T10">
-            <v>4643.8345503812225</v>
-          </cell>
-          <cell r="U10">
-            <v>4907.5316444603686</v>
-          </cell>
-          <cell r="V10">
-            <v>5149.4794152991608</v>
-          </cell>
-          <cell r="W10">
-            <v>5368.7217605243968</v>
-          </cell>
-          <cell r="X10">
-            <v>5565.1598514983398</v>
-          </cell>
-          <cell r="Y10">
-            <v>5739.3964545208837</v>
-          </cell>
-          <cell r="Z10">
-            <v>5892.5636833218095</v>
-          </cell>
-          <cell r="AA10">
-            <v>6026.1555256387583</v>
-          </cell>
-          <cell r="AB10">
-            <v>6141.8793779363323</v>
-          </cell>
-          <cell r="AC10">
-            <v>6241.5340085637208</v>
-          </cell>
-          <cell r="AD10">
-            <v>6326.9159508593248</v>
-          </cell>
-          <cell r="AE10">
-            <v>6399.7526614421795</v>
-          </cell>
-          <cell r="AF10">
-            <v>6461.6587298551603</v>
-          </cell>
-          <cell r="AG10">
-            <v>6514.1106231518088</v>
-          </cell>
-          <cell r="AH10">
-            <v>6558.4354749555841</v>
-          </cell>
-          <cell r="AI10">
-            <v>6595.8099219990681</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>1210000</v>
-          </cell>
-          <cell r="G13">
-            <v>10600000</v>
-          </cell>
-          <cell r="J13">
-            <v>21000000</v>
-          </cell>
-          <cell r="O13">
-            <v>40000000</v>
-          </cell>
-          <cell r="T13">
-            <v>55000000</v>
-          </cell>
-          <cell r="Y13">
-            <v>72000000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="11">
-          <cell r="B11">
-            <v>2019</v>
-          </cell>
-          <cell r="C11">
-            <v>2020</v>
-          </cell>
-          <cell r="D11">
-            <v>2021</v>
-          </cell>
-          <cell r="E11">
-            <v>2022</v>
-          </cell>
-          <cell r="F11">
-            <v>2023</v>
-          </cell>
-          <cell r="G11">
-            <v>2024</v>
-          </cell>
-          <cell r="H11">
-            <v>2025</v>
-          </cell>
-          <cell r="I11">
-            <v>2026</v>
-          </cell>
-          <cell r="J11">
-            <v>2027</v>
-          </cell>
-          <cell r="K11">
-            <v>2028</v>
-          </cell>
-          <cell r="L11">
-            <v>2029</v>
-          </cell>
-          <cell r="M11">
-            <v>2030</v>
-          </cell>
-          <cell r="N11">
-            <v>2031</v>
-          </cell>
-          <cell r="O11">
-            <v>2032</v>
-          </cell>
-          <cell r="P11">
-            <v>2033</v>
-          </cell>
-          <cell r="Q11">
-            <v>2034</v>
-          </cell>
-          <cell r="R11">
-            <v>2035</v>
-          </cell>
-          <cell r="S11">
-            <v>2036</v>
-          </cell>
-          <cell r="T11">
-            <v>2037</v>
-          </cell>
-          <cell r="U11">
-            <v>2038</v>
-          </cell>
-          <cell r="V11">
-            <v>2039</v>
-          </cell>
-          <cell r="W11">
-            <v>2040</v>
-          </cell>
-          <cell r="X11">
-            <v>2041</v>
-          </cell>
-          <cell r="Y11">
-            <v>2042</v>
-          </cell>
-          <cell r="Z11">
-            <v>2043</v>
-          </cell>
-          <cell r="AA11">
-            <v>2044</v>
-          </cell>
-          <cell r="AB11">
-            <v>2045</v>
-          </cell>
-          <cell r="AC11">
-            <v>2046</v>
-          </cell>
-          <cell r="AD11">
-            <v>2047</v>
-          </cell>
-          <cell r="AE11">
-            <v>2048</v>
-          </cell>
-          <cell r="AF11">
-            <v>2049</v>
-          </cell>
-          <cell r="AG11">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>EV battery new sales (MWh)</v>
-          </cell>
-          <cell r="B12">
-            <v>230000</v>
-          </cell>
-          <cell r="C12">
-            <v>490909.09090909094</v>
-          </cell>
-          <cell r="D12">
-            <v>751818.18181818188</v>
-          </cell>
-          <cell r="E12">
-            <v>1012727.2727272727</v>
-          </cell>
-          <cell r="F12">
-            <v>1273636.3636363638</v>
-          </cell>
-          <cell r="G12">
-            <v>1534545.4545454548</v>
-          </cell>
-          <cell r="H12">
-            <v>1795454.5454545456</v>
-          </cell>
-          <cell r="I12">
-            <v>2056363.6363636365</v>
-          </cell>
-          <cell r="J12">
-            <v>2317272.7272727275</v>
-          </cell>
-          <cell r="K12">
-            <v>2578181.8181818184</v>
-          </cell>
-          <cell r="L12">
-            <v>2839090.9090909096</v>
-          </cell>
-          <cell r="M12">
-            <v>3100000</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>EV battery new sales, extrapolated 2031-2040 (GWh)</v>
-          </cell>
-          <cell r="N13">
-            <v>3424790.5975175635</v>
-          </cell>
-          <cell r="O13">
-            <v>3746501.3723235992</v>
-          </cell>
-          <cell r="P13">
-            <v>4059905.3441759855</v>
-          </cell>
-          <cell r="Q13">
-            <v>4360313.8003408825</v>
-          </cell>
-          <cell r="R13">
-            <v>4643834.5503812227</v>
-          </cell>
-          <cell r="S13">
-            <v>4907531.6444603689</v>
-          </cell>
-          <cell r="T13">
-            <v>5149479.4152991604</v>
-          </cell>
-          <cell r="U13">
-            <v>5368721.7605243968</v>
-          </cell>
-          <cell r="V13">
-            <v>5565159.8514983393</v>
-          </cell>
-          <cell r="W13">
-            <v>5739396.454520884</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>EV battery new sales, extrapolated 2041-2050 (GWh)</v>
-          </cell>
-          <cell r="X14">
-            <v>5892563.6833218094</v>
-          </cell>
-          <cell r="Y14">
-            <v>6026155.5256387582</v>
-          </cell>
-          <cell r="Z14">
-            <v>6141879.3779363325</v>
-          </cell>
-          <cell r="AA14">
-            <v>6241534.0085637206</v>
-          </cell>
-          <cell r="AB14">
-            <v>6326915.950859325</v>
-          </cell>
-          <cell r="AC14">
-            <v>6399752.6614421792</v>
-          </cell>
-          <cell r="AD14">
-            <v>6461658.7298551602</v>
-          </cell>
-          <cell r="AE14">
-            <v>6514110.623151809</v>
-          </cell>
-          <cell r="AF14">
-            <v>6558435.4749555839</v>
-          </cell>
-          <cell r="AG14">
-            <v>6595809.921999068</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="C16">
-            <v>2019</v>
-          </cell>
-          <cell r="D16">
-            <v>2020</v>
-          </cell>
-          <cell r="E16">
-            <v>2021</v>
-          </cell>
-          <cell r="F16">
-            <v>2022</v>
-          </cell>
-          <cell r="G16">
-            <v>2023</v>
-          </cell>
-          <cell r="H16">
-            <v>2024</v>
-          </cell>
-          <cell r="I16">
-            <v>2025</v>
-          </cell>
-          <cell r="J16">
-            <v>2026</v>
-          </cell>
-          <cell r="K16">
-            <v>2027</v>
-          </cell>
-          <cell r="L16">
-            <v>2028</v>
-          </cell>
-          <cell r="M16">
-            <v>2029</v>
-          </cell>
-          <cell r="N16">
-            <v>2030</v>
-          </cell>
-          <cell r="O16">
-            <v>2031</v>
-          </cell>
-          <cell r="P16">
-            <v>2032</v>
-          </cell>
-          <cell r="Q16">
-            <v>2033</v>
-          </cell>
-          <cell r="R16">
-            <v>2034</v>
-          </cell>
-          <cell r="S16">
-            <v>2035</v>
-          </cell>
-          <cell r="T16">
-            <v>2036</v>
-          </cell>
-          <cell r="U16">
-            <v>2037</v>
-          </cell>
-          <cell r="V16">
-            <v>2038</v>
-          </cell>
-          <cell r="W16">
-            <v>2039</v>
-          </cell>
-          <cell r="X16">
-            <v>2040</v>
-          </cell>
-          <cell r="Y16">
-            <v>2041</v>
-          </cell>
-          <cell r="Z16">
-            <v>2042</v>
-          </cell>
-          <cell r="AA16">
-            <v>2043</v>
-          </cell>
-          <cell r="AB16">
-            <v>2044</v>
-          </cell>
-          <cell r="AC16">
-            <v>2045</v>
-          </cell>
-          <cell r="AD16">
-            <v>2046</v>
-          </cell>
-          <cell r="AE16">
-            <v>2047</v>
-          </cell>
-          <cell r="AF16">
-            <v>2048</v>
-          </cell>
-          <cell r="AG16">
-            <v>2049</v>
-          </cell>
-          <cell r="AH16">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>EV battery cap, cumulative (MWh)</v>
-          </cell>
-          <cell r="C17">
-            <v>2730000</v>
-          </cell>
-          <cell r="D17">
-            <v>3220909.0909090908</v>
-          </cell>
-          <cell r="E17">
-            <v>3972727.2727272725</v>
-          </cell>
-          <cell r="F17">
-            <v>4985454.5454545449</v>
-          </cell>
-          <cell r="G17">
-            <v>6259090.9090909082</v>
-          </cell>
-          <cell r="H17">
-            <v>7793636.3636363633</v>
-          </cell>
-          <cell r="I17">
-            <v>9589090.9090909082</v>
-          </cell>
-          <cell r="J17">
-            <v>11645454.545454545</v>
-          </cell>
-          <cell r="K17">
-            <v>13962727.272727273</v>
-          </cell>
-          <cell r="L17">
-            <v>16540909.090909092</v>
-          </cell>
-          <cell r="M17">
-            <v>19380000</v>
-          </cell>
-          <cell r="N17">
-            <v>22480000</v>
-          </cell>
-          <cell r="O17">
-            <v>25904790.597517565</v>
-          </cell>
-          <cell r="P17">
-            <v>29651291.969841164</v>
-          </cell>
-          <cell r="Q17">
-            <v>33711197.314017147</v>
-          </cell>
-          <cell r="R17">
-            <v>38071511.11435803</v>
-          </cell>
-          <cell r="S17">
-            <v>42715345.664739251</v>
-          </cell>
-          <cell r="T17">
-            <v>47622877.309199616</v>
-          </cell>
-          <cell r="U17">
-            <v>52772356.724498779</v>
-          </cell>
-          <cell r="V17">
-            <v>58141078.485023178</v>
-          </cell>
-          <cell r="W17">
-            <v>63706238.336521521</v>
-          </cell>
-          <cell r="X17">
-            <v>69445634.791042402</v>
-          </cell>
-          <cell r="Y17">
-            <v>75338198.474364206</v>
-          </cell>
-          <cell r="Z17">
-            <v>81364354.000002965</v>
-          </cell>
-          <cell r="AA17">
-            <v>87506233.377939299</v>
-          </cell>
-          <cell r="AB17">
-            <v>93747767.386503026</v>
-          </cell>
-          <cell r="AC17">
-            <v>100074683.33736235</v>
-          </cell>
-          <cell r="AD17">
-            <v>106474435.99880452</v>
-          </cell>
-          <cell r="AE17">
-            <v>112936094.72865969</v>
-          </cell>
-          <cell r="AF17">
-            <v>119450205.3518115</v>
-          </cell>
-          <cell r="AG17">
-            <v>126008640.82676709</v>
-          </cell>
-          <cell r="AH17">
-            <v>132604450.74876615</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8519,7 +7282,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
@@ -8530,12 +7293,18 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="25">
+        <v>45302</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8543,62 +7312,62 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>51</v>
       </c>
@@ -10712,131 +9481,99 @@
         <v>21</v>
       </c>
       <c r="B6" s="13">
-        <f>'[2]Grid Battery Storage'!B6</f>
         <v>23809.523809523806</v>
       </c>
       <c r="C6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!C8)</f>
         <v>23809.52380952239</v>
       </c>
       <c r="D6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!D8)</f>
         <v>50000</v>
       </c>
       <c r="E6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!E8)</f>
         <v>76190.47619047761</v>
       </c>
       <c r="F6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!F8)</f>
         <v>102380.95238095522</v>
       </c>
       <c r="G6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!G8)</f>
         <v>128571.42857143283</v>
       </c>
       <c r="H6">
-        <f>TREND('[2]Grid Battery Storage'!$B$6:$C$6,'[2]Grid Battery Storage'!$B$4:$C$4,'[2]Grid Battery Storage'!H8)</f>
         <v>154761.90476190299</v>
       </c>
       <c r="I6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!I8)</f>
         <v>238095.2380952239</v>
       </c>
       <c r="J6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!J8)</f>
         <v>321428.57142856717</v>
       </c>
       <c r="K6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!K8)</f>
         <v>404761.90476191044</v>
       </c>
       <c r="L6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!L8)</f>
         <v>488095.2380952239</v>
       </c>
       <c r="M6">
-        <f>TREND('[2]Grid Battery Storage'!$C$6:$D$6,'[2]Grid Battery Storage'!$C$4:$D$4,'[2]Grid Battery Storage'!M8)</f>
         <v>571428.57142856717</v>
       </c>
       <c r="N6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!N8)</f>
         <v>685714.28571429849</v>
       </c>
       <c r="O6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!O8)</f>
         <v>800000</v>
       </c>
       <c r="P6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!P8)</f>
         <v>914285.71428573132</v>
       </c>
       <c r="Q6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!Q8)</f>
         <v>1028571.4285714328</v>
       </c>
       <c r="R6">
-        <f>TREND('[2]Grid Battery Storage'!$D$6:$E$6,'[2]Grid Battery Storage'!$D$4:$E$4,'[2]Grid Battery Storage'!R8)</f>
         <v>1142857.1428571343</v>
       </c>
       <c r="S6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!S8)</f>
         <v>1319047.6190475821</v>
       </c>
       <c r="T6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!T8)</f>
         <v>1495238.0952380896</v>
       </c>
       <c r="U6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!U8)</f>
         <v>1671428.5714285374</v>
       </c>
       <c r="V6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!V8)</f>
         <v>1847619.0476190448</v>
       </c>
       <c r="W6">
-        <f>TREND('[2]Grid Battery Storage'!$E$6:$F$6,'[2]Grid Battery Storage'!$E$4:$F$4,'[2]Grid Battery Storage'!W8)</f>
         <v>2023809.5238094926</v>
       </c>
       <c r="X6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!X8)</f>
         <v>2261904.7619047761</v>
       </c>
       <c r="Y6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!Y8)</f>
         <v>2500000.0000000596</v>
       </c>
       <c r="Z6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!Z8)</f>
         <v>2738095.2380952835</v>
       </c>
       <c r="AA6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!AA8)</f>
         <v>2976190.4761905074</v>
       </c>
       <c r="AB6">
-        <f>TREND('[2]Grid Battery Storage'!$F$6:$G$6,'[2]Grid Battery Storage'!$F$4:$G$4,'[2]Grid Battery Storage'!AB8)</f>
         <v>3214285.7142857313</v>
       </c>
       <c r="AC6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AC8)</f>
         <v>3440476.1904761791</v>
       </c>
       <c r="AD6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AD8)</f>
         <v>3666666.6666666865</v>
       </c>
       <c r="AE6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AE8)</f>
         <v>3892857.1428571343</v>
       </c>
       <c r="AF6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AF8)</f>
         <v>4119047.6190475821</v>
       </c>
       <c r="AG6">
-        <f>TREND('[2]Grid Battery Storage'!$G$6:$H$6,'[2]Grid Battery Storage'!$G$4:$H$4,'[2]Grid Battery Storage'!AG8)</f>
         <v>4345238.0952380896</v>
       </c>
     </row>
@@ -10953,51 +9690,39 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <f>('[2]EV Batteries'!D10)*(1000)</f>
         <v>230000</v>
       </c>
       <c r="C12">
-        <f>('[2]EV Batteries'!E10)*(1000)</f>
         <v>490909.09090909094</v>
       </c>
       <c r="D12">
-        <f>('[2]EV Batteries'!F10)*(1000)</f>
         <v>751818.18181818188</v>
       </c>
       <c r="E12">
-        <f>('[2]EV Batteries'!G10)*(1000)</f>
         <v>1012727.2727272727</v>
       </c>
       <c r="F12">
-        <f>('[2]EV Batteries'!H10)*(1000)</f>
         <v>1273636.3636363638</v>
       </c>
       <c r="G12">
-        <f>('[2]EV Batteries'!I10)*(1000)</f>
         <v>1534545.4545454548</v>
       </c>
       <c r="H12">
-        <f>('[2]EV Batteries'!J10)*(1000)</f>
         <v>1795454.5454545456</v>
       </c>
       <c r="I12">
-        <f>('[2]EV Batteries'!K10)*(1000)</f>
         <v>2056363.6363636365</v>
       </c>
       <c r="J12">
-        <f>('[2]EV Batteries'!L10)*(1000)</f>
         <v>2317272.7272727275</v>
       </c>
       <c r="K12">
-        <f>('[2]EV Batteries'!M10)*(1000)</f>
         <v>2578181.8181818184</v>
       </c>
       <c r="L12">
-        <f>('[2]EV Batteries'!N10)*(1000)</f>
         <v>2839090.9090909096</v>
       </c>
       <c r="M12">
-        <f>('[2]EV Batteries'!O10)*(1000)</f>
         <v>3100000</v>
       </c>
     </row>
@@ -11006,43 +9731,33 @@
         <v>9</v>
       </c>
       <c r="N13">
-        <f>('[2]EV Batteries'!P10)*(1000)</f>
         <v>3424790.5975175635</v>
       </c>
       <c r="O13">
-        <f>('[2]EV Batteries'!Q10)*(1000)</f>
         <v>3746501.3723235992</v>
       </c>
       <c r="P13">
-        <f>('[2]EV Batteries'!R10)*(1000)</f>
         <v>4059905.3441759855</v>
       </c>
       <c r="Q13">
-        <f>('[2]EV Batteries'!S10)*(1000)</f>
         <v>4360313.8003408825</v>
       </c>
       <c r="R13">
-        <f>('[2]EV Batteries'!T10)*(1000)</f>
         <v>4643834.5503812227</v>
       </c>
       <c r="S13">
-        <f>('[2]EV Batteries'!U10)*(1000)</f>
         <v>4907531.6444603689</v>
       </c>
       <c r="T13">
-        <f>('[2]EV Batteries'!V10)*(1000)</f>
         <v>5149479.4152991604</v>
       </c>
       <c r="U13">
-        <f>('[2]EV Batteries'!W10)*(1000)</f>
         <v>5368721.7605243968</v>
       </c>
       <c r="V13">
-        <f>('[2]EV Batteries'!X10)*(1000)</f>
         <v>5565159.8514983393</v>
       </c>
       <c r="W13">
-        <f>('[2]EV Batteries'!Y10)*(1000)</f>
         <v>5739396.454520884</v>
       </c>
     </row>
@@ -11051,43 +9766,33 @@
         <v>10</v>
       </c>
       <c r="X14">
-        <f>('[2]EV Batteries'!Z10)*(1000)</f>
         <v>5892563.6833218094</v>
       </c>
       <c r="Y14">
-        <f>('[2]EV Batteries'!AA10)*(1000)</f>
         <v>6026155.5256387582</v>
       </c>
       <c r="Z14">
-        <f>('[2]EV Batteries'!AB10)*(1000)</f>
         <v>6141879.3779363325</v>
       </c>
       <c r="AA14">
-        <f>('[2]EV Batteries'!AC10)*(1000)</f>
         <v>6241534.0085637206</v>
       </c>
       <c r="AB14">
-        <f>('[2]EV Batteries'!AD10)*(1000)</f>
         <v>6326915.950859325</v>
       </c>
       <c r="AC14">
-        <f>('[2]EV Batteries'!AE10)*(1000)</f>
         <v>6399752.6614421792</v>
       </c>
       <c r="AD14">
-        <f>('[2]EV Batteries'!AF10)*(1000)</f>
         <v>6461658.7298551602</v>
       </c>
       <c r="AE14">
-        <f>('[2]EV Batteries'!AG10)*(1000)</f>
         <v>6514110.623151809</v>
       </c>
       <c r="AF14">
-        <f>('[2]EV Batteries'!AH10)*(1000)</f>
         <v>6558435.4749555839</v>
       </c>
       <c r="AG14">
-        <f>('[2]EV Batteries'!AI10)*(1000)</f>
         <v>6595809.921999068</v>
       </c>
     </row>
@@ -11345,251 +10050,273 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA5CD56-30CC-4C38-A9B1-CB38FBF56566}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C1" sqref="C1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="35" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2022</v>
-      </c>
-      <c r="F1">
-        <v>2023</v>
-      </c>
-      <c r="G1">
-        <v>2024</v>
-      </c>
-      <c r="H1">
-        <v>2025</v>
-      </c>
-      <c r="I1">
-        <v>2026</v>
-      </c>
-      <c r="J1">
-        <v>2027</v>
-      </c>
-      <c r="K1">
-        <v>2028</v>
-      </c>
-      <c r="L1">
-        <v>2029</v>
-      </c>
-      <c r="M1">
-        <v>2030</v>
-      </c>
-      <c r="N1">
-        <v>2031</v>
-      </c>
-      <c r="O1">
-        <v>2032</v>
-      </c>
-      <c r="P1">
-        <v>2033</v>
-      </c>
-      <c r="Q1">
-        <v>2034</v>
-      </c>
-      <c r="R1">
-        <v>2035</v>
-      </c>
-      <c r="S1">
-        <v>2036</v>
-      </c>
-      <c r="T1">
-        <v>2037</v>
-      </c>
-      <c r="U1">
-        <v>2038</v>
-      </c>
-      <c r="V1">
-        <v>2039</v>
-      </c>
-      <c r="W1">
-        <v>2040</v>
-      </c>
-      <c r="X1">
-        <v>2041</v>
-      </c>
-      <c r="Y1">
-        <v>2042</v>
-      </c>
-      <c r="Z1">
-        <v>2043</v>
-      </c>
-      <c r="AA1">
-        <v>2044</v>
-      </c>
-      <c r="AB1">
-        <v>2045</v>
-      </c>
-      <c r="AC1">
-        <v>2046</v>
-      </c>
-      <c r="AD1">
-        <v>2047</v>
-      </c>
-      <c r="AE1">
-        <v>2048</v>
-      </c>
-      <c r="AF1">
-        <v>2049</v>
-      </c>
-      <c r="AG1">
-        <v>2050</v>
-      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="10">
-        <f>Calculations!B6+Calculations!C17</f>
-        <v>2753809.5238095238</v>
-      </c>
-      <c r="C2" s="10">
         <f>Calculations!C6+Calculations!D17</f>
         <v>3244718.6147186132</v>
       </c>
-      <c r="D2" s="10">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="33" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10">
         <f>Calculations!D6+Calculations!E17</f>
         <v>4022727.2727272725</v>
       </c>
-      <c r="E2" s="10">
+      <c r="C2" s="10">
         <f>Calculations!E6+Calculations!F17</f>
         <v>5061645.0216450226</v>
       </c>
-      <c r="F2" s="10">
+      <c r="D2" s="10">
         <f>Calculations!F6+Calculations!G17</f>
         <v>6361471.8614718635</v>
       </c>
-      <c r="G2" s="10">
+      <c r="E2" s="10">
         <f>Calculations!G6+Calculations!H17</f>
         <v>7922207.7922077961</v>
       </c>
-      <c r="H2" s="10">
+      <c r="F2" s="10">
         <f>Calculations!H6+Calculations!I17</f>
         <v>9743852.8138528112</v>
       </c>
-      <c r="I2" s="10">
+      <c r="G2" s="10">
         <f>Calculations!I6+Calculations!J17</f>
         <v>11883549.783549769</v>
       </c>
-      <c r="J2" s="10">
+      <c r="H2" s="10">
         <f>Calculations!J6+Calculations!K17</f>
         <v>14284155.844155841</v>
       </c>
-      <c r="K2" s="10">
+      <c r="I2" s="10">
         <f>Calculations!K6+Calculations!L17</f>
         <v>16945670.995671004</v>
       </c>
-      <c r="L2" s="10">
+      <c r="J2" s="10">
         <f>Calculations!L6+Calculations!M17</f>
         <v>19868095.238095224</v>
       </c>
-      <c r="M2" s="10">
+      <c r="K2" s="10">
         <f>Calculations!M6+Calculations!N17</f>
         <v>23051428.571428567</v>
       </c>
-      <c r="N2" s="10">
+      <c r="L2" s="10">
         <f>Calculations!N6+Calculations!O17</f>
         <v>26590504.883231863</v>
       </c>
-      <c r="O2" s="10">
+      <c r="M2" s="10">
         <f>Calculations!O6+Calculations!P17</f>
         <v>30451291.969841164</v>
       </c>
-      <c r="P2" s="10">
+      <c r="N2" s="10">
         <f>Calculations!P6+Calculations!Q17</f>
         <v>34625483.028302878</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="O2" s="10">
         <f>Calculations!Q6+Calculations!R17</f>
         <v>39100082.542929463</v>
       </c>
-      <c r="R2" s="10">
+      <c r="P2" s="10">
         <f>Calculations!R6+Calculations!S17</f>
         <v>43858202.807596385</v>
       </c>
-      <c r="S2" s="10">
+      <c r="Q2" s="10">
         <f>Calculations!S6+Calculations!T17</f>
         <v>48941924.928247198</v>
       </c>
-      <c r="T2" s="10">
+      <c r="R2" s="10">
         <f>Calculations!T6+Calculations!U17</f>
         <v>54267594.819736868</v>
       </c>
-      <c r="U2" s="10">
+      <c r="S2" s="10">
         <f>Calculations!U6+Calculations!V17</f>
         <v>59812507.056451716</v>
       </c>
-      <c r="V2" s="10">
+      <c r="T2" s="10">
         <f>Calculations!V6+Calculations!W17</f>
         <v>65553857.384140566</v>
       </c>
-      <c r="W2" s="10">
+      <c r="U2" s="10">
         <f>Calculations!W6+Calculations!X17</f>
         <v>71469444.314851895</v>
       </c>
-      <c r="X2" s="10">
+      <c r="V2" s="10">
         <f>Calculations!X6+Calculations!Y17</f>
         <v>77600103.236268982</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="W2" s="10">
         <f>Calculations!Y6+Calculations!Z17</f>
         <v>83864354.000003025</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="X2" s="10">
         <f>Calculations!Z6+Calculations!AA17</f>
         <v>90244328.616034582</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="Y2" s="10">
         <f>Calculations!AA6+Calculations!AB17</f>
         <v>96723957.862693533</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="Z2" s="10">
         <f>Calculations!AB6+Calculations!AC17</f>
         <v>103288969.05164808</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AA2" s="10">
         <f>Calculations!AC6+Calculations!AD17</f>
         <v>109914912.1892807</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AB2" s="10">
         <f>Calculations!AD6+Calculations!AE17</f>
         <v>116602761.39532638</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AC2" s="10">
         <f>Calculations!AE6+Calculations!AF17</f>
         <v>123343062.49466863</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AD2" s="10">
         <f>Calculations!AF6+Calculations!AG17</f>
         <v>130127688.44581467</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AE2" s="10">
         <f>Calculations!AG6+Calculations!AH17</f>
         <v>136949688.84400424</v>
       </c>

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\state-eps-data-repository\CA\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BB597E2-6E87-4DE2-BE47-1987EC78D7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6BAD2893-2120-4193-9490-DF1BF87C89D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12195" yWindow="225" windowWidth="16605" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="1875" windowWidth="15660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -7301,7 +7301,7 @@
         <v>68</v>
       </c>
       <c r="C1" s="25">
-        <v>45302</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">

--- a/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
+++ b/InputData/endo-learn/BGBSC/BAU Global Battery Storage Cap.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\RMI\RMI_all_states\CA\endo-learn\BGBSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\endo-learn\BGBSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78C71DA9-ED98-4B3F-A0E8-FE284E5F9B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF225A-7568-4778-89A3-1CD84988F734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>BGBSC BAU Global Battery Storage Capacity</t>
   </si>
@@ -155,9 +155,6 @@
   </si>
   <si>
     <t>https://about.bnef.com/electric-vehicle-outlook/</t>
-  </si>
-  <si>
-    <t>California</t>
   </si>
 </sst>
 </file>
@@ -271,7 +268,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -303,7 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2841,7 +2837,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
@@ -2852,18 +2848,12 @@
     <col min="2" max="2" width="60.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="18">
-        <v>45531</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2871,57 +2861,57 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2024</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
